--- a/data/financial_statements/soci/BF-B.xlsx
+++ b/data/financial_statements/soci/BF-B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D Expenses</t>
   </si>
   <si>
     <t>SG&amp;A Expenses</t>
@@ -46,6 +49,9 @@
     <t>Non-operating Income/Expense</t>
   </si>
   <si>
+    <t>Income (Other)</t>
+  </si>
+  <si>
     <t>EBT</t>
   </si>
   <si>
@@ -53,6 +59,9 @@
   </si>
   <si>
     <t>Income after Tax</t>
+  </si>
+  <si>
+    <t>Non-Controlling Interest</t>
   </si>
   <si>
     <t>Net Income Common</t>
@@ -476,4051 +485,4189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44865</v>
+        <v>44834</v>
       </c>
       <c r="C1" s="2">
-        <v>44773</v>
+        <v>44742</v>
       </c>
       <c r="D1" s="2">
-        <v>44681</v>
+        <v>44651</v>
       </c>
       <c r="E1" s="2">
-        <v>44592</v>
+        <v>44561</v>
       </c>
       <c r="F1" s="2">
-        <v>44500</v>
+        <v>44469</v>
       </c>
       <c r="G1" s="2">
-        <v>44408</v>
+        <v>44377</v>
       </c>
       <c r="H1" s="2">
-        <v>44316</v>
+        <v>44286</v>
       </c>
       <c r="I1" s="2">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="J1" s="2">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="K1" s="2">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="L1" s="2">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="M1" s="2">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="N1" s="2">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="O1" s="2">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="P1" s="2">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="Q1" s="2">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="R1" s="2">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="S1" s="2">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="T1" s="2">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="U1" s="2">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="V1" s="2">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="W1" s="2">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="X1" s="2">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="Y1" s="2">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="Z1" s="2">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="AA1" s="2">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="AB1" s="2">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="AC1" s="2">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="AD1" s="2">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="AE1" s="2">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="AF1" s="2">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="AG1" s="2">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="AH1" s="2">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="AI1" s="2">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="AJ1" s="2">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="AK1" s="2">
-        <v>41670</v>
+        <v>41639</v>
       </c>
       <c r="AL1" s="2">
-        <v>41578</v>
+        <v>41547</v>
       </c>
       <c r="AM1" s="2">
-        <v>41486</v>
+        <v>41455</v>
       </c>
       <c r="AN1" s="2">
-        <v>41394</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41305</v>
+        <v>41364</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1094000000</v>
+        <v>8619000000</v>
       </c>
       <c r="C2">
-        <v>1007000000</v>
+        <v>8702000000</v>
       </c>
       <c r="D2">
-        <v>996000000</v>
+        <v>8829000000</v>
       </c>
       <c r="E2">
-        <v>1037000000</v>
+        <v>8612000000</v>
       </c>
       <c r="F2">
-        <v>994000000</v>
+        <v>8942000000</v>
       </c>
       <c r="G2">
-        <v>906000000</v>
+        <v>8950000000</v>
       </c>
       <c r="H2">
-        <v>812000000</v>
+        <v>8851000000</v>
       </c>
       <c r="I2">
-        <v>911000000</v>
+        <v>8583000000</v>
       </c>
       <c r="J2">
-        <v>985000000</v>
+        <v>8350000000</v>
       </c>
       <c r="K2">
-        <v>753000000</v>
+        <v>7176000000</v>
       </c>
       <c r="L2">
-        <v>709000000</v>
+        <v>8075000000</v>
       </c>
       <c r="M2">
-        <v>899000000</v>
+        <v>8111000000</v>
       </c>
       <c r="N2">
-        <v>989000000</v>
+        <v>7991000000</v>
       </c>
       <c r="O2">
-        <v>766000000</v>
+        <v>8171000000</v>
       </c>
       <c r="P2">
-        <v>744000000</v>
+        <v>7863000000</v>
       </c>
       <c r="Q2">
-        <v>904000000</v>
+        <v>7945000000</v>
       </c>
       <c r="R2">
-        <v>910000000</v>
+        <v>8152000000</v>
       </c>
       <c r="S2">
-        <v>766000000</v>
+        <v>8390000000</v>
       </c>
       <c r="T2">
-        <v>733000000</v>
+        <v>8278000000</v>
       </c>
       <c r="U2">
-        <v>878000000</v>
+        <v>7990000000</v>
       </c>
       <c r="V2">
-        <v>914000000</v>
+        <v>8172000000</v>
       </c>
       <c r="W2">
-        <v>723000000</v>
+        <v>7810000000</v>
       </c>
       <c r="X2">
-        <v>695000000</v>
+        <v>7685000000</v>
       </c>
       <c r="Y2">
-        <v>808000000</v>
+        <v>7329000000</v>
       </c>
       <c r="Z2">
-        <v>830000000</v>
+        <v>7709000000</v>
       </c>
       <c r="AA2">
-        <v>661000000</v>
+        <v>7662000000</v>
       </c>
       <c r="AB2">
-        <v>727000000</v>
+        <v>7409000000</v>
       </c>
       <c r="AC2">
-        <v>809000000</v>
+        <v>7298000000</v>
       </c>
       <c r="AD2">
-        <v>854000000</v>
+        <v>7712000000</v>
       </c>
       <c r="AE2">
-        <v>699000000</v>
+        <v>7686000000</v>
       </c>
       <c r="AF2">
-        <v>739000000</v>
+        <v>7578000000</v>
       </c>
       <c r="AG2">
-        <v>813000000</v>
+        <v>7719000000</v>
       </c>
       <c r="AH2">
-        <v>877000000</v>
+        <v>8137000000</v>
       </c>
       <c r="AI2">
-        <v>705000000</v>
+        <v>8134000000</v>
       </c>
       <c r="AJ2">
-        <v>690000000</v>
+        <v>7831000000</v>
       </c>
       <c r="AK2">
-        <v>782000000</v>
+        <v>7569000000</v>
       </c>
       <c r="AL2">
-        <v>833000000</v>
+        <v>7916000000</v>
       </c>
       <c r="AM2">
-        <v>686000000</v>
+        <v>7752000000</v>
       </c>
       <c r="AN2">
-        <v>659000000</v>
-      </c>
-      <c r="AO2">
-        <v>747000000</v>
+        <v>7634000000</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1006</v>
+        <v>-0.0361</v>
       </c>
       <c r="C3">
-        <v>0.1115</v>
+        <v>-0.0277</v>
       </c>
       <c r="D3">
-        <v>0.2266</v>
+        <v>-0.0025</v>
       </c>
       <c r="E3">
-        <v>0.1383</v>
+        <v>0.0034</v>
       </c>
       <c r="F3">
-        <v>0.0091</v>
+        <v>0.0709</v>
       </c>
       <c r="G3">
-        <v>0.2032</v>
+        <v>0.2472</v>
       </c>
       <c r="H3">
-        <v>0.1453</v>
+        <v>0.0961</v>
       </c>
       <c r="I3">
-        <v>0.0133</v>
+        <v>0.0582</v>
       </c>
       <c r="J3">
-        <v>-0.004</v>
+        <v>0.0449</v>
       </c>
       <c r="K3">
-        <v>-0.017</v>
+        <v>-0.1218</v>
       </c>
       <c r="L3">
-        <v>-0.047</v>
+        <v>0.027</v>
       </c>
       <c r="M3">
-        <v>-0.0055</v>
+        <v>0.0209</v>
       </c>
       <c r="N3">
-        <v>0.0868</v>
+        <v>-0.0197</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0.0261</v>
       </c>
       <c r="P3">
-        <v>0.015</v>
+        <v>-0.0501</v>
       </c>
       <c r="Q3">
-        <v>0.0296</v>
+        <v>-0.0056</v>
       </c>
       <c r="R3">
-        <v>-0.0044</v>
+        <v>-0.0024</v>
       </c>
       <c r="S3">
-        <v>0.0595</v>
+        <v>0.0743</v>
       </c>
       <c r="T3">
-        <v>0.0547</v>
+        <v>0.0772</v>
       </c>
       <c r="U3">
-        <v>0.0866</v>
+        <v>0.0902</v>
       </c>
       <c r="V3">
-        <v>0.1012</v>
+        <v>0.0601</v>
       </c>
       <c r="W3">
-        <v>0.09379999999999999</v>
+        <v>0.0193</v>
       </c>
       <c r="X3">
-        <v>-0.044</v>
+        <v>0.0373</v>
       </c>
       <c r="Y3">
-        <v>-0.0012</v>
+        <v>0.0042</v>
       </c>
       <c r="Z3">
-        <v>-0.0281</v>
+        <v>-0.0004</v>
       </c>
       <c r="AA3">
-        <v>-0.0544</v>
+        <v>-0.0031</v>
       </c>
       <c r="AB3">
-        <v>-0.0162</v>
+        <v>-0.0223</v>
       </c>
       <c r="AC3">
-        <v>-0.0049</v>
+        <v>-0.0545</v>
       </c>
       <c r="AD3">
-        <v>-0.0262</v>
+        <v>-0.0522</v>
       </c>
       <c r="AE3">
-        <v>-0.008500000000000001</v>
+        <v>-0.0551</v>
       </c>
       <c r="AF3">
-        <v>0.07099999999999999</v>
+        <v>-0.0323</v>
       </c>
       <c r="AG3">
-        <v>0.0396</v>
+        <v>0.0198</v>
       </c>
       <c r="AH3">
-        <v>0.0528</v>
+        <v>0.0279</v>
       </c>
       <c r="AI3">
-        <v>0.0277</v>
+        <v>0.0493</v>
       </c>
       <c r="AJ3">
-        <v>0.047</v>
+        <v>0.0258</v>
       </c>
       <c r="AK3">
-        <v>0.0469</v>
+        <v>0.0246</v>
       </c>
       <c r="AL3">
-        <v>0.0721</v>
+        <v>0.0559</v>
       </c>
       <c r="AM3">
-        <v>0.03</v>
+        <v>0.0289</v>
       </c>
       <c r="AN3">
-        <v>0.09379999999999999</v>
-      </c>
-      <c r="AO3">
-        <v>0.06469999999999999</v>
+        <v>0.0198</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>481000000</v>
+        <v>4728000000</v>
       </c>
       <c r="C4">
-        <v>385000000</v>
+        <v>5093000000</v>
       </c>
       <c r="D4">
-        <v>370000000</v>
+        <v>4826000000</v>
       </c>
       <c r="E4">
-        <v>415000000</v>
+        <v>4698000000</v>
       </c>
       <c r="F4">
-        <v>404000000</v>
+        <v>4853000000</v>
       </c>
       <c r="G4">
-        <v>353000000</v>
+        <v>4719000000</v>
       </c>
       <c r="H4">
-        <v>314000000</v>
+        <v>4525000000</v>
       </c>
       <c r="I4">
-        <v>361000000</v>
+        <v>4388000000</v>
       </c>
       <c r="J4">
-        <v>404000000</v>
+        <v>4303000000</v>
       </c>
       <c r="K4">
-        <v>288000000</v>
+        <v>3805000000</v>
       </c>
       <c r="L4">
-        <v>256000000</v>
+        <v>4109000000</v>
       </c>
       <c r="M4">
-        <v>342000000</v>
+        <v>4325000000</v>
       </c>
       <c r="N4">
-        <v>370000000</v>
+        <v>4188000000</v>
       </c>
       <c r="O4">
-        <v>268000000</v>
+        <v>4313000000</v>
       </c>
       <c r="P4">
-        <v>262000000</v>
+        <v>4310000000</v>
       </c>
       <c r="Q4">
-        <v>333000000</v>
+        <v>4060000000</v>
       </c>
       <c r="R4">
-        <v>320000000</v>
+        <v>4159000000</v>
       </c>
       <c r="S4">
-        <v>243000000</v>
+        <v>4227000000</v>
       </c>
       <c r="T4">
-        <v>221000000</v>
+        <v>4236000000</v>
       </c>
       <c r="U4">
-        <v>291000000</v>
+        <v>4094000000</v>
       </c>
       <c r="V4">
-        <v>304000000</v>
+        <v>4059000000</v>
       </c>
       <c r="W4">
-        <v>230000000</v>
+        <v>4020000000</v>
       </c>
       <c r="X4">
-        <v>215000000</v>
+        <v>3882000000</v>
       </c>
       <c r="Y4">
-        <v>272000000</v>
+        <v>3794000000</v>
       </c>
       <c r="Z4">
-        <v>278000000</v>
+        <v>3847000000</v>
       </c>
       <c r="AA4">
-        <v>208000000</v>
+        <v>3799000000</v>
       </c>
       <c r="AB4">
-        <v>215000000</v>
+        <v>3678000000</v>
       </c>
       <c r="AC4">
-        <v>254000000</v>
+        <v>3827000000</v>
       </c>
       <c r="AD4">
-        <v>268000000</v>
+        <v>3877000000</v>
       </c>
       <c r="AE4">
-        <v>208000000</v>
+        <v>3858000000</v>
       </c>
       <c r="AF4">
-        <v>213000000</v>
+        <v>3821000000</v>
       </c>
       <c r="AG4">
-        <v>260000000</v>
+        <v>4027000000</v>
       </c>
       <c r="AH4">
-        <v>268000000</v>
+        <v>4205000000</v>
       </c>
       <c r="AI4">
-        <v>210000000</v>
+        <v>4184000000</v>
       </c>
       <c r="AJ4">
-        <v>197000000</v>
+        <v>4031000000</v>
       </c>
       <c r="AK4">
-        <v>250000000</v>
+        <v>3976000000</v>
       </c>
       <c r="AL4">
-        <v>257000000</v>
+        <v>4148000000</v>
       </c>
       <c r="AM4">
-        <v>209000000</v>
+        <v>4013000000</v>
       </c>
       <c r="AN4">
-        <v>200000000</v>
-      </c>
-      <c r="AO4">
-        <v>240000000</v>
+        <v>3969000000</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>613000000</v>
+        <v>3891000000</v>
       </c>
       <c r="C5">
-        <v>622000000</v>
+        <v>3609000000</v>
       </c>
       <c r="D5">
-        <v>626000000</v>
+        <v>4003000000</v>
       </c>
       <c r="E5">
-        <v>622000000</v>
+        <v>3914000000</v>
       </c>
       <c r="F5">
-        <v>590000000</v>
+        <v>4089000000</v>
       </c>
       <c r="G5">
-        <v>553000000</v>
+        <v>4231000000</v>
       </c>
       <c r="H5">
-        <v>498000000</v>
+        <v>4326000000</v>
       </c>
       <c r="I5">
-        <v>550000000</v>
+        <v>4195000000</v>
       </c>
       <c r="J5">
-        <v>581000000</v>
+        <v>4047000000</v>
       </c>
       <c r="K5">
-        <v>465000000</v>
+        <v>3371000000</v>
       </c>
       <c r="L5">
-        <v>453000000</v>
+        <v>3966000000</v>
       </c>
       <c r="M5">
-        <v>557000000</v>
+        <v>3786000000</v>
       </c>
       <c r="N5">
-        <v>619000000</v>
+        <v>3803000000</v>
       </c>
       <c r="O5">
-        <v>498000000</v>
+        <v>3858000000</v>
       </c>
       <c r="P5">
-        <v>482000000</v>
+        <v>3553000000</v>
       </c>
       <c r="Q5">
-        <v>571000000</v>
+        <v>3885000000</v>
       </c>
       <c r="R5">
-        <v>590000000</v>
+        <v>3993000000</v>
       </c>
       <c r="S5">
-        <v>523000000</v>
+        <v>4163000000</v>
       </c>
       <c r="T5">
-        <v>512000000</v>
+        <v>4042000000</v>
       </c>
       <c r="U5">
-        <v>587000000</v>
+        <v>3896000000</v>
       </c>
       <c r="V5">
-        <v>610000000</v>
+        <v>4113000000</v>
       </c>
       <c r="W5">
-        <v>493000000</v>
+        <v>3790000000</v>
       </c>
       <c r="X5">
-        <v>480000000</v>
+        <v>3803000000</v>
       </c>
       <c r="Y5">
-        <v>536000000</v>
+        <v>3535000000</v>
       </c>
       <c r="Z5">
-        <v>552000000</v>
+        <v>3862000000</v>
       </c>
       <c r="AA5">
-        <v>453000000</v>
+        <v>3863000000</v>
       </c>
       <c r="AB5">
-        <v>512000000</v>
+        <v>3731000000</v>
       </c>
       <c r="AC5">
-        <v>555000000</v>
+        <v>3471000000</v>
       </c>
       <c r="AD5">
-        <v>586000000</v>
+        <v>3835000000</v>
       </c>
       <c r="AE5">
-        <v>491000000</v>
+        <v>3828000000</v>
       </c>
       <c r="AF5">
-        <v>526000000</v>
+        <v>3757000000</v>
       </c>
       <c r="AG5">
-        <v>553000000</v>
+        <v>3692000000</v>
       </c>
       <c r="AH5">
-        <v>609000000</v>
+        <v>3932000000</v>
       </c>
       <c r="AI5">
-        <v>495000000</v>
+        <v>3950000000</v>
       </c>
       <c r="AJ5">
-        <v>493000000</v>
+        <v>3800000000</v>
       </c>
       <c r="AK5">
-        <v>532000000</v>
+        <v>3593000000</v>
       </c>
       <c r="AL5">
-        <v>576000000</v>
+        <v>3768000000</v>
       </c>
       <c r="AM5">
-        <v>477000000</v>
+        <v>3739000000</v>
       </c>
       <c r="AN5">
-        <v>459000000</v>
-      </c>
-      <c r="AO5">
-        <v>507000000</v>
+        <v>3665000000</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>301000000</v>
+        <v>461000000</v>
       </c>
       <c r="C6">
-        <v>285000000</v>
+        <v>476000000</v>
       </c>
       <c r="D6">
-        <v>322000000</v>
+        <v>480000000</v>
       </c>
       <c r="E6">
-        <v>279000000</v>
+        <v>474000000</v>
       </c>
       <c r="F6">
-        <v>269000000</v>
+        <v>482000000</v>
       </c>
       <c r="G6">
-        <v>258000000</v>
+        <v>514000000</v>
       </c>
       <c r="H6">
-        <v>332000000</v>
+        <v>524000000</v>
       </c>
       <c r="I6">
-        <v>278000000</v>
+        <v>456000000</v>
       </c>
       <c r="J6">
-        <v>250000000</v>
+        <v>461000000</v>
       </c>
       <c r="K6">
-        <v>210000000</v>
+        <v>424000000</v>
       </c>
       <c r="L6">
-        <v>354000000</v>
+        <v>537000000</v>
       </c>
       <c r="M6">
-        <v>257000000</v>
+        <v>521000000</v>
       </c>
       <c r="N6">
-        <v>158000000</v>
+        <v>443000000</v>
       </c>
       <c r="O6">
-        <v>256000000</v>
+        <v>470000000</v>
       </c>
       <c r="P6">
-        <v>256000000</v>
+        <v>477000000</v>
       </c>
       <c r="Q6">
-        <v>252000000</v>
+        <v>437000000</v>
       </c>
       <c r="R6">
-        <v>263000000</v>
+        <v>430000000</v>
       </c>
       <c r="S6">
-        <v>266000000</v>
+        <v>468000000</v>
       </c>
       <c r="T6">
-        <v>366000000</v>
+        <v>486000000</v>
       </c>
       <c r="U6">
-        <v>285000000</v>
+        <v>448000000</v>
       </c>
       <c r="V6">
-        <v>271000000</v>
+        <v>468000000</v>
       </c>
       <c r="W6">
-        <v>248000000</v>
+        <v>478000000</v>
       </c>
       <c r="X6">
-        <v>352000000</v>
+        <v>476000000</v>
       </c>
       <c r="Y6">
-        <v>162000000</v>
+        <v>450000000</v>
       </c>
       <c r="Z6">
-        <v>270000000</v>
+        <v>427000000</v>
       </c>
       <c r="AA6">
-        <v>245000000</v>
+        <v>437000000</v>
       </c>
       <c r="AB6">
-        <v>-136000000</v>
+        <v>450000000</v>
       </c>
       <c r="AC6">
-        <v>274000000</v>
+        <v>433000000</v>
       </c>
       <c r="AD6">
-        <v>286000000</v>
+        <v>429000000</v>
       </c>
       <c r="AE6">
-        <v>264000000</v>
+        <v>438000000</v>
       </c>
       <c r="AF6">
-        <v>289000000</v>
+        <v>463000000</v>
       </c>
       <c r="AG6">
-        <v>275000000</v>
+        <v>436000000</v>
       </c>
       <c r="AH6">
-        <v>301000000</v>
+        <v>434000000</v>
       </c>
       <c r="AI6">
-        <v>269000000</v>
+        <v>448000000</v>
       </c>
       <c r="AJ6">
-        <v>313000000</v>
+        <v>452000000</v>
       </c>
       <c r="AK6">
-        <v>277000000</v>
+        <v>438000000</v>
       </c>
       <c r="AL6">
-        <v>273000000</v>
+        <v>420000000</v>
       </c>
       <c r="AM6">
-        <v>259000000</v>
+        <v>427000000</v>
       </c>
       <c r="AN6">
-        <v>279000000</v>
-      </c>
-      <c r="AO6">
-        <v>273000000</v>
+        <v>430000000</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>313000000</v>
+        <v>1998000000</v>
       </c>
       <c r="C7">
-        <v>343000000</v>
+        <v>3023000000</v>
       </c>
       <c r="D7">
-        <v>246000000</v>
+        <v>1882000000</v>
       </c>
       <c r="E7">
-        <v>347000000</v>
+        <v>1824000000</v>
       </c>
       <c r="F7">
-        <v>322000000</v>
+        <v>1819000000</v>
       </c>
       <c r="G7">
-        <v>289000000</v>
+        <v>1746000000</v>
       </c>
       <c r="H7">
-        <v>168000000</v>
+        <v>1808000000</v>
       </c>
       <c r="I7">
-        <v>281000000</v>
+        <v>1890000000</v>
       </c>
       <c r="J7">
-        <v>330000000</v>
+        <v>1677000000</v>
       </c>
       <c r="K7">
-        <v>387000000</v>
+        <v>1594000000</v>
       </c>
       <c r="L7">
-        <v>187000000</v>
+        <v>1768000000</v>
       </c>
       <c r="M7">
-        <v>304000000</v>
+        <v>1940000000</v>
       </c>
       <c r="N7">
-        <v>352000000</v>
+        <v>1455000000</v>
       </c>
       <c r="O7">
-        <v>248000000</v>
+        <v>1686000000</v>
       </c>
       <c r="P7">
-        <v>228000000</v>
+        <v>1948000000</v>
       </c>
       <c r="Q7">
-        <v>320000000</v>
+        <v>1682000000</v>
       </c>
       <c r="R7">
-        <v>332000000</v>
+        <v>1547000000</v>
       </c>
       <c r="S7">
-        <v>264000000</v>
+        <v>1800000000</v>
       </c>
       <c r="T7">
-        <v>147000000</v>
+        <v>2573000000</v>
       </c>
       <c r="U7">
-        <v>306000000</v>
+        <v>1755000000</v>
       </c>
       <c r="V7">
-        <v>349000000</v>
+        <v>1637000000</v>
       </c>
       <c r="W7">
-        <v>246000000</v>
+        <v>1620000000</v>
       </c>
       <c r="X7">
-        <v>233000000</v>
+        <v>1614000000</v>
       </c>
       <c r="Y7">
-        <v>273000000</v>
+        <v>1727000000</v>
       </c>
       <c r="Z7">
-        <v>291000000</v>
+        <v>1531000000</v>
       </c>
       <c r="AA7">
-        <v>213000000</v>
+        <v>1560000000</v>
       </c>
       <c r="AB7">
-        <v>726000000</v>
+        <v>1493000000</v>
       </c>
       <c r="AC7">
-        <v>278000000</v>
+        <v>1585000000</v>
       </c>
       <c r="AD7">
-        <v>302000000</v>
+        <v>1530000000</v>
       </c>
       <c r="AE7">
-        <v>227000000</v>
+        <v>1550000000</v>
       </c>
       <c r="AF7">
-        <v>231000000</v>
+        <v>1564000000</v>
       </c>
       <c r="AG7">
-        <v>272000000</v>
+        <v>1594000000</v>
       </c>
       <c r="AH7">
-        <v>303000000</v>
+        <v>1597000000</v>
       </c>
       <c r="AI7">
-        <v>221000000</v>
+        <v>1646000000</v>
       </c>
       <c r="AJ7">
-        <v>188000000</v>
+        <v>1632000000</v>
       </c>
       <c r="AK7">
-        <v>255000000</v>
+        <v>1576000000</v>
       </c>
       <c r="AL7">
-        <v>311000000</v>
+        <v>1609000000</v>
       </c>
       <c r="AM7">
-        <v>217000000</v>
+        <v>1610000000</v>
       </c>
       <c r="AN7">
-        <v>177000000</v>
-      </c>
-      <c r="AO7">
-        <v>237000000</v>
+        <v>1589000000</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>18000000</v>
+        <v>4156000000</v>
       </c>
       <c r="C8">
-        <v>19000000</v>
+        <v>110000000</v>
       </c>
       <c r="D8">
-        <v>21000000</v>
+        <v>1641000000</v>
       </c>
       <c r="E8">
-        <v>20000000</v>
+        <v>1616000000</v>
       </c>
       <c r="F8">
-        <v>20000000</v>
+        <v>1788000000</v>
       </c>
       <c r="G8">
-        <v>21000000</v>
+        <v>1971000000</v>
       </c>
       <c r="H8">
-        <v>20000000</v>
+        <v>1994000000</v>
       </c>
       <c r="I8">
-        <v>21000000</v>
+        <v>1849000000</v>
       </c>
       <c r="J8">
-        <v>20000000</v>
+        <v>1909000000</v>
       </c>
       <c r="K8">
-        <v>20000000</v>
+        <v>1740000000</v>
       </c>
       <c r="L8">
-        <v>20000000</v>
+        <v>1663000000</v>
       </c>
       <c r="M8">
-        <v>20000000</v>
+        <v>1325000000</v>
+      </c>
+      <c r="N8">
+        <v>2011000000</v>
+      </c>
+      <c r="O8">
+        <v>1702000000</v>
+      </c>
+      <c r="P8">
+        <v>1136000000</v>
+      </c>
+      <c r="Q8">
+        <v>1783000000</v>
+      </c>
+      <c r="R8">
+        <v>2016000000</v>
+      </c>
+      <c r="S8">
+        <v>2401000000</v>
+      </c>
+      <c r="T8">
+        <v>1007000000</v>
+      </c>
+      <c r="U8">
+        <v>1789000000</v>
+      </c>
+      <c r="V8">
+        <v>2008000000</v>
+      </c>
+      <c r="W8">
+        <v>2153000000</v>
+      </c>
+      <c r="X8">
+        <v>1742000000</v>
+      </c>
+      <c r="Y8">
+        <v>1469000000</v>
+      </c>
+      <c r="Z8">
+        <v>1904000000</v>
+      </c>
+      <c r="AA8">
+        <v>1866000000</v>
+      </c>
+      <c r="AB8">
+        <v>1788000000</v>
+      </c>
+      <c r="AC8">
+        <v>1500000000</v>
+      </c>
+      <c r="AD8">
+        <v>1876000000</v>
+      </c>
+      <c r="AE8">
+        <v>1840000000</v>
+      </c>
+      <c r="AF8">
+        <v>1730000000</v>
+      </c>
+      <c r="AG8">
+        <v>1662000000</v>
+      </c>
+      <c r="AH8">
+        <v>1901000000</v>
+      </c>
+      <c r="AI8">
+        <v>1856000000</v>
+      </c>
+      <c r="AJ8">
+        <v>1716000000</v>
+      </c>
+      <c r="AK8">
+        <v>1579000000</v>
+      </c>
+      <c r="AL8">
+        <v>1739000000</v>
+      </c>
+      <c r="AM8">
+        <v>1702000000</v>
+      </c>
+      <c r="AN8">
+        <v>1646000000</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>18000000</v>
+        <v>82000000</v>
       </c>
       <c r="C9">
-        <v>19000000</v>
+        <v>125000000</v>
       </c>
       <c r="D9">
-        <v>21000000</v>
+        <v>136000000</v>
       </c>
       <c r="E9">
-        <v>20000000</v>
+        <v>112000000</v>
       </c>
       <c r="F9">
-        <v>20000000</v>
+        <v>79000000</v>
       </c>
       <c r="G9">
-        <v>21000000</v>
+        <v>125000000</v>
       </c>
       <c r="H9">
-        <v>20000000</v>
+        <v>141000000</v>
       </c>
       <c r="I9">
-        <v>21000000</v>
+        <v>179000000</v>
       </c>
       <c r="J9">
-        <v>20000000</v>
+        <v>155000000</v>
       </c>
       <c r="K9">
-        <v>20000000</v>
+        <v>124000000</v>
       </c>
       <c r="L9">
-        <v>20000000</v>
+        <v>105000000</v>
       </c>
       <c r="M9">
-        <v>20000000</v>
-      </c>
-      <c r="N9">
-        <v>21000000</v>
-      </c>
-      <c r="O9">
-        <v>21000000</v>
-      </c>
-      <c r="P9">
-        <v>21000000</v>
-      </c>
-      <c r="Q9">
-        <v>23000000</v>
-      </c>
-      <c r="R9">
-        <v>22000000</v>
-      </c>
-      <c r="S9">
-        <v>22000000</v>
-      </c>
-      <c r="T9">
-        <v>19000000</v>
-      </c>
-      <c r="U9">
-        <v>17000000</v>
-      </c>
-      <c r="V9">
-        <v>16000000</v>
-      </c>
-      <c r="W9">
-        <v>16000000</v>
-      </c>
-      <c r="X9">
-        <v>14000000</v>
-      </c>
-      <c r="Y9">
-        <v>16000000</v>
-      </c>
-      <c r="Z9">
-        <v>16000000</v>
-      </c>
-      <c r="AA9">
-        <v>13000000</v>
-      </c>
-      <c r="AB9">
-        <v>13000000</v>
-      </c>
-      <c r="AC9">
-        <v>12000000</v>
-      </c>
-      <c r="AD9">
-        <v>12000000</v>
-      </c>
-      <c r="AE9">
-        <v>9000000</v>
-      </c>
-      <c r="AF9">
-        <v>7000000</v>
-      </c>
-      <c r="AG9">
-        <v>6000000</v>
-      </c>
-      <c r="AH9">
-        <v>7000000</v>
-      </c>
-      <c r="AI9">
-        <v>7000000</v>
-      </c>
-      <c r="AJ9">
-        <v>6000000</v>
-      </c>
-      <c r="AK9">
-        <v>6000000</v>
-      </c>
-      <c r="AL9">
-        <v>7000000</v>
-      </c>
-      <c r="AM9">
-        <v>7000000</v>
-      </c>
-      <c r="AN9">
-        <v>17000000</v>
-      </c>
-      <c r="AO9">
-        <v>9000000</v>
+        <v>135000000</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-15000000</v>
+        <v>17000000</v>
       </c>
       <c r="C10">
-        <v>-17000000</v>
+        <v>11000000</v>
       </c>
       <c r="D10">
-        <v>-30000000</v>
+        <v>8000000</v>
       </c>
       <c r="E10">
-        <v>-19000000</v>
+        <v>8000000</v>
       </c>
       <c r="F10">
-        <v>-21000000</v>
+        <v>6000000</v>
       </c>
       <c r="G10">
-        <v>-20000000</v>
+        <v>8000000</v>
       </c>
       <c r="H10">
-        <v>-21000000</v>
+        <v>4000000</v>
       </c>
       <c r="I10">
-        <v>-22000000</v>
+        <v>5000000</v>
       </c>
       <c r="J10">
-        <v>-21000000</v>
+        <v>5000000</v>
       </c>
       <c r="K10">
-        <v>-21000000</v>
+        <v>9000000</v>
       </c>
       <c r="L10">
-        <v>-21000000</v>
+        <v>10000000</v>
       </c>
       <c r="M10">
-        <v>-20000000</v>
-      </c>
-      <c r="N10">
-        <v>-21000000</v>
-      </c>
-      <c r="O10">
-        <v>-20000000</v>
-      </c>
-      <c r="P10">
-        <v>-22000000</v>
-      </c>
-      <c r="Q10">
-        <v>-36000000</v>
-      </c>
-      <c r="R10">
-        <v>-22000000</v>
-      </c>
-      <c r="S10">
-        <v>-22000000</v>
-      </c>
-      <c r="T10">
-        <v>-19000000</v>
-      </c>
-      <c r="U10">
-        <v>-17000000</v>
-      </c>
-      <c r="V10">
-        <v>-18000000</v>
-      </c>
-      <c r="W10">
-        <v>-17000000</v>
-      </c>
-      <c r="X10">
-        <v>-35000000</v>
-      </c>
-      <c r="Y10">
-        <v>-15000000</v>
+        <v>16000000</v>
       </c>
       <c r="Z10">
-        <v>-15000000</v>
+        <v>50000000</v>
       </c>
       <c r="AA10">
-        <v>-12000000</v>
+        <v>38000000</v>
       </c>
       <c r="AB10">
-        <v>-11000000</v>
-      </c>
-      <c r="AC10">
-        <v>-12000000</v>
+        <v>47000000</v>
       </c>
       <c r="AD10">
-        <v>-12000000</v>
+        <v>38000000</v>
       </c>
       <c r="AE10">
-        <v>-9000000</v>
+        <v>35000000</v>
       </c>
       <c r="AF10">
-        <v>-5000000</v>
+        <v>31000000</v>
       </c>
       <c r="AG10">
-        <v>-6000000</v>
+        <v>32000000</v>
       </c>
       <c r="AH10">
-        <v>-7000000</v>
+        <v>28000000</v>
       </c>
       <c r="AI10">
-        <v>-7000000</v>
+        <v>45000000</v>
       </c>
       <c r="AJ10">
-        <v>-6000000</v>
+        <v>37000000</v>
       </c>
       <c r="AK10">
-        <v>-6000000</v>
+        <v>32000000</v>
       </c>
       <c r="AL10">
-        <v>-6000000</v>
+        <v>33000000</v>
       </c>
       <c r="AM10">
-        <v>-6000000</v>
+        <v>41000000</v>
       </c>
       <c r="AN10">
-        <v>-16000000</v>
-      </c>
-      <c r="AO10">
-        <v>-8000000</v>
+        <v>39000000</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>298000000</v>
+        <v>-24000000</v>
       </c>
       <c r="C11">
-        <v>326000000</v>
+        <v>-50000000</v>
       </c>
       <c r="D11">
-        <v>216000000</v>
+        <v>-38000000</v>
       </c>
       <c r="E11">
-        <v>328000000</v>
+        <v>-52000000</v>
       </c>
       <c r="F11">
-        <v>301000000</v>
+        <v>-31000000</v>
       </c>
       <c r="G11">
-        <v>269000000</v>
+        <v>-33000000</v>
       </c>
       <c r="H11">
-        <v>147000000</v>
+        <v>-49000000</v>
       </c>
       <c r="I11">
-        <v>259000000</v>
+        <v>-118000000</v>
       </c>
       <c r="J11">
-        <v>309000000</v>
+        <v>-83000000</v>
       </c>
       <c r="K11">
-        <v>366000000</v>
+        <v>-90000000</v>
       </c>
       <c r="L11">
-        <v>166000000</v>
+        <v>-75000000</v>
       </c>
       <c r="M11">
-        <v>284000000</v>
+        <v>-182000000</v>
       </c>
       <c r="N11">
-        <v>331000000</v>
+        <v>-45000000</v>
       </c>
       <c r="O11">
-        <v>228000000</v>
+        <v>-256000000</v>
       </c>
       <c r="P11">
-        <v>206000000</v>
+        <v>-48000000</v>
       </c>
       <c r="Q11">
-        <v>284000000</v>
+        <v>-63000000</v>
       </c>
       <c r="R11">
-        <v>310000000</v>
+        <v>-51000000</v>
       </c>
       <c r="S11">
-        <v>242000000</v>
+        <v>-51000000</v>
       </c>
       <c r="T11">
-        <v>128000000</v>
+        <v>-42000000</v>
       </c>
       <c r="U11">
-        <v>289000000</v>
+        <v>-117000000</v>
       </c>
       <c r="V11">
-        <v>331000000</v>
+        <v>-11000000</v>
       </c>
       <c r="W11">
-        <v>229000000</v>
+        <v>-11000000</v>
       </c>
       <c r="X11">
-        <v>198000000</v>
+        <v>-5000000</v>
       </c>
       <c r="Y11">
-        <v>258000000</v>
+        <v>141000000</v>
       </c>
       <c r="Z11">
-        <v>276000000</v>
+        <v>-42000000</v>
       </c>
       <c r="AA11">
-        <v>201000000</v>
+        <v>-31000000</v>
       </c>
       <c r="AB11">
-        <v>715000000</v>
+        <v>-42000000</v>
       </c>
       <c r="AC11">
-        <v>266000000</v>
+        <v>-37000000</v>
       </c>
       <c r="AD11">
-        <v>290000000</v>
+        <v>-31000000</v>
       </c>
       <c r="AE11">
-        <v>218000000</v>
+        <v>-28000000</v>
       </c>
       <c r="AF11">
-        <v>226000000</v>
+        <v>-27000000</v>
       </c>
       <c r="AG11">
-        <v>266000000</v>
+        <v>-24000000</v>
       </c>
       <c r="AH11">
-        <v>296000000</v>
+        <v>-21000000</v>
       </c>
       <c r="AI11">
-        <v>214000000</v>
+        <v>-36000000</v>
       </c>
       <c r="AJ11">
-        <v>182000000</v>
+        <v>-28000000</v>
       </c>
       <c r="AK11">
-        <v>249000000</v>
+        <v>-21000000</v>
       </c>
       <c r="AL11">
-        <v>305000000</v>
+        <v>-23000000</v>
       </c>
       <c r="AM11">
-        <v>211000000</v>
+        <v>-31000000</v>
       </c>
       <c r="AN11">
-        <v>161000000</v>
-      </c>
-      <c r="AO11">
-        <v>229000000</v>
+        <v>-29000000</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>71000000</v>
+        <v>2000000</v>
       </c>
       <c r="C12">
-        <v>77000000</v>
+        <v>-1000000</v>
       </c>
       <c r="D12">
-        <v>65000000</v>
+        <v>2000000</v>
       </c>
       <c r="E12">
-        <v>69000000</v>
+        <v>3000000</v>
       </c>
       <c r="F12">
-        <v>65000000</v>
+        <v>4000000</v>
       </c>
       <c r="G12">
-        <v>77000000</v>
+        <v>2000000</v>
       </c>
       <c r="H12">
-        <v>27000000</v>
+        <v>1000000</v>
       </c>
       <c r="I12">
-        <v>40000000</v>
+        <v>-4000000</v>
       </c>
       <c r="J12">
-        <v>69000000</v>
-      </c>
-      <c r="K12">
-        <v>42000000</v>
-      </c>
-      <c r="L12">
-        <v>38000000</v>
-      </c>
-      <c r="M12">
-        <v>53000000</v>
-      </c>
-      <c r="N12">
-        <v>49000000</v>
-      </c>
-      <c r="O12">
-        <v>42000000</v>
-      </c>
-      <c r="P12">
-        <v>47000000</v>
-      </c>
-      <c r="Q12">
-        <v>57000000</v>
-      </c>
-      <c r="R12">
-        <v>61000000</v>
-      </c>
-      <c r="S12">
-        <v>42000000</v>
-      </c>
-      <c r="T12">
-        <v>18000000</v>
-      </c>
-      <c r="U12">
-        <v>99000000</v>
-      </c>
-      <c r="V12">
-        <v>92000000</v>
-      </c>
-      <c r="W12">
-        <v>51000000</v>
-      </c>
-      <c r="X12">
-        <v>52000000</v>
-      </c>
-      <c r="Y12">
-        <v>76000000</v>
-      </c>
-      <c r="Z12">
-        <v>79000000</v>
-      </c>
-      <c r="AA12">
-        <v>57000000</v>
-      </c>
-      <c r="AB12">
-        <v>194000000</v>
-      </c>
-      <c r="AC12">
-        <v>76000000</v>
-      </c>
-      <c r="AD12">
-        <v>90000000</v>
-      </c>
-      <c r="AE12">
-        <v>62000000</v>
-      </c>
-      <c r="AF12">
-        <v>86000000</v>
-      </c>
-      <c r="AG12">
-        <v>80000000</v>
-      </c>
-      <c r="AH12">
-        <v>88000000</v>
-      </c>
-      <c r="AI12">
-        <v>64000000</v>
-      </c>
-      <c r="AJ12">
-        <v>49000000</v>
-      </c>
-      <c r="AK12">
-        <v>72000000</v>
-      </c>
-      <c r="AL12">
-        <v>99000000</v>
-      </c>
-      <c r="AM12">
-        <v>68000000</v>
-      </c>
-      <c r="AN12">
-        <v>47000000</v>
-      </c>
-      <c r="AO12">
-        <v>72000000</v>
+        <v>-1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>227000000</v>
+        <v>4132000000</v>
       </c>
       <c r="C13">
-        <v>249000000</v>
+        <v>60000000</v>
       </c>
       <c r="D13">
-        <v>151000000</v>
+        <v>1603000000</v>
       </c>
       <c r="E13">
-        <v>259000000</v>
+        <v>1564000000</v>
       </c>
       <c r="F13">
-        <v>236000000</v>
+        <v>1757000000</v>
       </c>
       <c r="G13">
-        <v>192000000</v>
+        <v>1938000000</v>
       </c>
       <c r="H13">
-        <v>120000000</v>
+        <v>1945000000</v>
       </c>
       <c r="I13">
-        <v>219000000</v>
+        <v>1731000000</v>
       </c>
       <c r="J13">
-        <v>240000000</v>
+        <v>1826000000</v>
       </c>
       <c r="K13">
-        <v>324000000</v>
+        <v>1650000000</v>
       </c>
       <c r="L13">
-        <v>128000000</v>
+        <v>1588000000</v>
       </c>
       <c r="M13">
-        <v>231000000</v>
+        <v>1143000000</v>
       </c>
       <c r="N13">
-        <v>282000000</v>
+        <v>1966000000</v>
       </c>
       <c r="O13">
-        <v>186000000</v>
+        <v>1446000000</v>
       </c>
       <c r="P13">
-        <v>159000000</v>
+        <v>1088000000</v>
       </c>
       <c r="Q13">
-        <v>227000000</v>
+        <v>1720000000</v>
       </c>
       <c r="R13">
-        <v>249000000</v>
+        <v>1965000000</v>
       </c>
       <c r="S13">
-        <v>200000000</v>
+        <v>2350000000</v>
       </c>
       <c r="T13">
-        <v>110000000</v>
+        <v>965000000</v>
       </c>
       <c r="U13">
-        <v>190000000</v>
+        <v>1672000000</v>
       </c>
       <c r="V13">
-        <v>239000000</v>
+        <v>1997000000</v>
       </c>
       <c r="W13">
-        <v>178000000</v>
+        <v>2142000000</v>
       </c>
       <c r="X13">
-        <v>146000000</v>
+        <v>1737000000</v>
       </c>
       <c r="Y13">
-        <v>182000000</v>
+        <v>1610000000</v>
       </c>
       <c r="Z13">
-        <v>197000000</v>
+        <v>1862000000</v>
       </c>
       <c r="AA13">
-        <v>144000000</v>
+        <v>1835000000</v>
       </c>
       <c r="AB13">
-        <v>521000000</v>
+        <v>1746000000</v>
       </c>
       <c r="AC13">
-        <v>190000000</v>
+        <v>1463000000</v>
       </c>
       <c r="AD13">
-        <v>200000000</v>
+        <v>1845000000</v>
       </c>
       <c r="AE13">
-        <v>156000000</v>
+        <v>1812000000</v>
       </c>
       <c r="AF13">
-        <v>140000000</v>
+        <v>1703000000</v>
       </c>
       <c r="AG13">
-        <v>186000000</v>
+        <v>1638000000</v>
       </c>
       <c r="AH13">
-        <v>208000000</v>
+        <v>1880000000</v>
       </c>
       <c r="AI13">
-        <v>150000000</v>
+        <v>1820000000</v>
       </c>
       <c r="AJ13">
-        <v>133000000</v>
+        <v>1688000000</v>
       </c>
       <c r="AK13">
-        <v>177000000</v>
+        <v>1558000000</v>
       </c>
       <c r="AL13">
-        <v>206000000</v>
+        <v>1716000000</v>
       </c>
       <c r="AM13">
-        <v>143000000</v>
+        <v>1671000000</v>
       </c>
       <c r="AN13">
-        <v>114000000</v>
-      </c>
-      <c r="AO13">
-        <v>157000000</v>
+        <v>1617000000</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>271000000</v>
+      </c>
+      <c r="C14">
+        <v>-23000000</v>
+      </c>
+      <c r="D14">
+        <v>302000000</v>
+      </c>
+      <c r="E14">
         <v>227000000</v>
       </c>
-      <c r="C14">
-        <v>249000000</v>
-      </c>
-      <c r="D14">
-        <v>151000000</v>
-      </c>
-      <c r="E14">
-        <v>259000000</v>
-      </c>
       <c r="F14">
-        <v>236000000</v>
+        <v>324000000</v>
       </c>
       <c r="G14">
-        <v>192000000</v>
+        <v>415000000</v>
       </c>
       <c r="H14">
-        <v>120000000</v>
+        <v>319000000</v>
       </c>
       <c r="I14">
-        <v>219000000</v>
+        <v>321000000</v>
       </c>
       <c r="J14">
-        <v>240000000</v>
+        <v>391000000</v>
       </c>
       <c r="K14">
-        <v>324000000</v>
+        <v>347000000</v>
       </c>
       <c r="L14">
-        <v>128000000</v>
+        <v>278000000</v>
       </c>
       <c r="M14">
-        <v>231000000</v>
+        <v>226000000</v>
       </c>
       <c r="N14">
-        <v>282000000</v>
+        <v>378000000</v>
       </c>
       <c r="O14">
-        <v>186000000</v>
+        <v>315000000</v>
       </c>
       <c r="P14">
-        <v>159000000</v>
+        <v>195000000</v>
       </c>
       <c r="Q14">
-        <v>227000000</v>
+        <v>371000000</v>
       </c>
       <c r="R14">
-        <v>249000000</v>
+        <v>419000000</v>
       </c>
       <c r="S14">
-        <v>200000000</v>
+        <v>488000000</v>
       </c>
       <c r="T14">
-        <v>110000000</v>
+        <v>359000000</v>
       </c>
       <c r="U14">
-        <v>190000000</v>
+        <v>1147000000</v>
       </c>
       <c r="V14">
-        <v>239000000</v>
+        <v>564000000</v>
       </c>
       <c r="W14">
-        <v>178000000</v>
+        <v>557000000</v>
       </c>
       <c r="X14">
-        <v>146000000</v>
+        <v>411000000</v>
       </c>
       <c r="Y14">
-        <v>182000000</v>
+        <v>454000000</v>
       </c>
       <c r="Z14">
-        <v>197000000</v>
+        <v>531000000</v>
       </c>
       <c r="AA14">
-        <v>144000000</v>
+        <v>542000000</v>
       </c>
       <c r="AB14">
-        <v>521000000</v>
+        <v>468000000</v>
       </c>
       <c r="AC14">
-        <v>190000000</v>
+        <v>424000000</v>
       </c>
       <c r="AD14">
-        <v>200000000</v>
+        <v>547000000</v>
       </c>
       <c r="AE14">
-        <v>156000000</v>
+        <v>509000000</v>
       </c>
       <c r="AF14">
-        <v>140000000</v>
+        <v>502000000</v>
       </c>
       <c r="AG14">
-        <v>186000000</v>
+        <v>459000000</v>
       </c>
       <c r="AH14">
-        <v>208000000</v>
+        <v>569000000</v>
       </c>
       <c r="AI14">
-        <v>150000000</v>
+        <v>537000000</v>
       </c>
       <c r="AJ14">
-        <v>133000000</v>
+        <v>463000000</v>
       </c>
       <c r="AK14">
-        <v>177000000</v>
+        <v>442000000</v>
       </c>
       <c r="AL14">
-        <v>206000000</v>
+        <v>471000000</v>
       </c>
       <c r="AM14">
-        <v>143000000</v>
+        <v>458000000</v>
       </c>
       <c r="AN14">
-        <v>114000000</v>
-      </c>
-      <c r="AO14">
-        <v>157000000</v>
+        <v>470000000</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:40">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.47</v>
+        <v>3861000000</v>
       </c>
       <c r="C15">
-        <v>0.52</v>
+        <v>83000000</v>
       </c>
       <c r="D15">
-        <v>0.32</v>
+        <v>1301000000</v>
       </c>
       <c r="E15">
-        <v>0.54</v>
+        <v>1337000000</v>
       </c>
       <c r="F15">
-        <v>0.49</v>
+        <v>1433000000</v>
       </c>
       <c r="G15">
-        <v>0.4</v>
+        <v>1523000000</v>
       </c>
       <c r="H15">
-        <v>0.25</v>
+        <v>1626000000</v>
       </c>
       <c r="I15">
-        <v>0.46</v>
+        <v>1410000000</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>1435000000</v>
       </c>
       <c r="K15">
-        <v>0.68</v>
+        <v>1303000000</v>
       </c>
       <c r="L15">
-        <v>0.27</v>
+        <v>1310000000</v>
       </c>
       <c r="M15">
-        <v>0.48</v>
+        <v>917000000</v>
       </c>
       <c r="N15">
-        <v>0.59</v>
+        <v>1588000000</v>
       </c>
       <c r="O15">
-        <v>0.39</v>
+        <v>1131000000</v>
       </c>
       <c r="P15">
-        <v>0.33</v>
+        <v>893000000</v>
       </c>
       <c r="Q15">
-        <v>0.47</v>
+        <v>1349000000</v>
       </c>
       <c r="R15">
-        <v>0.52</v>
+        <v>1546000000</v>
       </c>
       <c r="S15">
-        <v>0.42</v>
+        <v>1862000000</v>
       </c>
       <c r="T15">
-        <v>0.23</v>
+        <v>606000000</v>
       </c>
       <c r="U15">
-        <v>0.39</v>
+        <v>525000000</v>
       </c>
       <c r="V15">
-        <v>0.496</v>
+        <v>1433000000</v>
       </c>
       <c r="W15">
-        <v>0.368</v>
+        <v>1585000000</v>
       </c>
       <c r="X15">
-        <v>0.304</v>
+        <v>1326000000</v>
       </c>
       <c r="Y15">
-        <v>0.376</v>
+        <v>1156000000</v>
       </c>
       <c r="Z15">
-        <v>0.408</v>
+        <v>1331000000</v>
       </c>
       <c r="AA15">
-        <v>0.296</v>
+        <v>1293000000</v>
       </c>
       <c r="AB15">
-        <v>1.048</v>
+        <v>1278000000</v>
       </c>
       <c r="AC15">
-        <v>0.376</v>
+        <v>1039000000</v>
       </c>
       <c r="AD15">
-        <v>0.392</v>
+        <v>1298000000</v>
       </c>
       <c r="AE15">
-        <v>0.3</v>
+        <v>1303000000</v>
       </c>
       <c r="AF15">
-        <v>0.268</v>
+        <v>1201000000</v>
       </c>
       <c r="AG15">
-        <v>0.352</v>
+        <v>1179000000</v>
       </c>
       <c r="AH15">
-        <v>0.392</v>
+        <v>1311000000</v>
       </c>
       <c r="AI15">
-        <v>0.28</v>
+        <v>1283000000</v>
       </c>
       <c r="AJ15">
-        <v>0.248</v>
+        <v>1225000000</v>
       </c>
       <c r="AK15">
-        <v>0.332</v>
+        <v>1116000000</v>
       </c>
       <c r="AL15">
-        <v>0.388</v>
+        <v>1245000000</v>
       </c>
       <c r="AM15">
-        <v>0.268</v>
+        <v>1213000000</v>
       </c>
       <c r="AN15">
-        <v>0.212</v>
-      </c>
-      <c r="AO15">
-        <v>0.296</v>
+        <v>1147000000</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.47</v>
+        <v>4000000</v>
       </c>
       <c r="C16">
-        <v>0.52</v>
+        <v>4000000</v>
       </c>
       <c r="D16">
-        <v>0.31</v>
+        <v>4000000</v>
       </c>
       <c r="E16">
-        <v>0.54</v>
+        <v>1000000</v>
       </c>
       <c r="F16">
-        <v>0.49</v>
+        <v>3000000</v>
       </c>
       <c r="G16">
-        <v>0.4</v>
+        <v>1000000</v>
       </c>
       <c r="H16">
-        <v>0.25</v>
+        <v>3000000</v>
       </c>
       <c r="I16">
-        <v>0.45</v>
+        <v>1000000</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
+        <v>4000000</v>
       </c>
       <c r="K16">
-        <v>0.67</v>
+        <v>-3000000</v>
       </c>
       <c r="L16">
-        <v>0.27</v>
+        <v>2000000</v>
       </c>
       <c r="M16">
-        <v>0.48</v>
+        <v>1000000</v>
       </c>
       <c r="N16">
-        <v>0.59</v>
+        <v>5000000</v>
       </c>
       <c r="O16">
-        <v>0.39</v>
+        <v>4000000</v>
       </c>
       <c r="P16">
-        <v>0.33</v>
+        <v>2000000</v>
       </c>
       <c r="Q16">
-        <v>0.47</v>
+        <v>2000000</v>
       </c>
       <c r="R16">
-        <v>0.52</v>
+        <v>3000000</v>
       </c>
       <c r="S16">
-        <v>0.41</v>
+        <v>5000000</v>
       </c>
       <c r="T16">
-        <v>0.23</v>
+        <v>4000000</v>
       </c>
       <c r="U16">
-        <v>0.39</v>
+        <v>2000000</v>
       </c>
       <c r="V16">
-        <v>0.496</v>
+        <v>4000000</v>
       </c>
       <c r="W16">
-        <v>0.368</v>
+        <v>2000000</v>
       </c>
       <c r="X16">
-        <v>0.296</v>
+        <v>3000000</v>
       </c>
       <c r="Y16">
-        <v>0.376</v>
+        <v>1000000</v>
       </c>
       <c r="Z16">
-        <v>0.4</v>
+        <v>2000000</v>
       </c>
       <c r="AA16">
-        <v>0.288</v>
+        <v>2000000</v>
       </c>
       <c r="AB16">
-        <v>1.04</v>
+        <v>3000000</v>
       </c>
       <c r="AC16">
-        <v>0.376</v>
+        <v>1000000</v>
       </c>
       <c r="AD16">
-        <v>0.388</v>
+        <v>2000000</v>
       </c>
       <c r="AE16">
-        <v>0.3</v>
+        <v>3000000</v>
       </c>
       <c r="AF16">
-        <v>0.264</v>
-      </c>
-      <c r="AG16">
-        <v>0.348</v>
+        <v>2000000</v>
       </c>
       <c r="AH16">
-        <v>0.388</v>
+        <v>8000000</v>
       </c>
       <c r="AI16">
-        <v>0.28</v>
+        <v>16000000</v>
       </c>
       <c r="AJ16">
-        <v>0.248</v>
+        <v>18000000</v>
       </c>
       <c r="AK16">
-        <v>0.328</v>
+        <v>13000000</v>
       </c>
       <c r="AL16">
-        <v>0.384</v>
+        <v>15000000</v>
       </c>
       <c r="AM16">
-        <v>0.264</v>
+        <v>16000000</v>
       </c>
       <c r="AN16">
-        <v>0.208</v>
-      </c>
-      <c r="AO16">
-        <v>0.292</v>
+        <v>18000000</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>479138000</v>
+        <v>3859000000</v>
       </c>
       <c r="C17">
-        <v>479079000</v>
+        <v>78000000</v>
       </c>
       <c r="D17">
-        <v>478879000</v>
+        <v>1299000000</v>
       </c>
       <c r="E17">
-        <v>478887000</v>
+        <v>1339000000</v>
       </c>
       <c r="F17">
-        <v>478857000</v>
+        <v>1434000000</v>
       </c>
       <c r="G17">
-        <v>478793000</v>
+        <v>1524000000</v>
       </c>
       <c r="H17">
-        <v>478527000</v>
+        <v>1624000000</v>
       </c>
       <c r="I17">
-        <v>478599000</v>
+        <v>1405000000</v>
       </c>
       <c r="J17">
-        <v>478506000</v>
+        <v>1430000000</v>
       </c>
       <c r="K17">
-        <v>478327000</v>
+        <v>1306000000</v>
       </c>
       <c r="L17">
-        <v>477765000</v>
+        <v>1308000000</v>
       </c>
       <c r="M17">
-        <v>477898000</v>
+        <v>916000000</v>
       </c>
       <c r="N17">
-        <v>477680000</v>
+        <v>1583000000</v>
       </c>
       <c r="O17">
-        <v>477369000</v>
+        <v>1127000000</v>
       </c>
       <c r="P17">
-        <v>478956000</v>
+        <v>891000000</v>
       </c>
       <c r="Q17">
-        <v>477301000</v>
+        <v>1347000000</v>
       </c>
       <c r="R17">
-        <v>480436000</v>
+        <v>1543000000</v>
       </c>
       <c r="S17">
-        <v>480964000</v>
+        <v>1857000000</v>
       </c>
       <c r="T17">
-        <v>480319000</v>
+        <v>602000000</v>
       </c>
       <c r="U17">
-        <v>480361000</v>
+        <v>523000000</v>
       </c>
       <c r="V17">
-        <v>480150000</v>
+        <v>1429000000</v>
       </c>
       <c r="W17">
-        <v>480048000</v>
+        <v>1583000000</v>
       </c>
       <c r="X17">
-        <v>484635000</v>
+        <v>1323000000</v>
       </c>
       <c r="Y17">
-        <v>480650000</v>
+        <v>1155000000</v>
       </c>
       <c r="Z17">
-        <v>486312500</v>
+        <v>1329000000</v>
       </c>
       <c r="AA17">
-        <v>491272500</v>
+        <v>1291000000</v>
       </c>
       <c r="AB17">
-        <v>507441000</v>
+        <v>1275000000</v>
       </c>
       <c r="AC17">
-        <v>502956200</v>
+        <v>1038000000</v>
       </c>
       <c r="AD17">
-        <v>510137500</v>
+        <v>1296000000</v>
       </c>
       <c r="AE17">
-        <v>518157500</v>
+        <v>1300000000</v>
       </c>
       <c r="AF17">
-        <v>528981300</v>
+        <v>1199000000</v>
       </c>
       <c r="AG17">
-        <v>527815000</v>
+        <v>1179000000</v>
       </c>
       <c r="AH17">
-        <v>530217500</v>
+        <v>1303000000</v>
       </c>
       <c r="AI17">
-        <v>533610000</v>
+        <v>1267000000</v>
       </c>
       <c r="AJ17">
-        <v>533635000</v>
+        <v>1207000000</v>
       </c>
       <c r="AK17">
-        <v>532877500</v>
+        <v>1103000000</v>
       </c>
       <c r="AL17">
-        <v>533967500</v>
+        <v>1230000000</v>
       </c>
       <c r="AM17">
-        <v>534272500</v>
+        <v>1197000000</v>
       </c>
       <c r="AN17">
-        <v>533422500</v>
-      </c>
-      <c r="AO17">
-        <v>533647500</v>
+        <v>1129000000</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>480549000</v>
+        <v>6.79</v>
       </c>
       <c r="C18">
-        <v>480444000</v>
+        <v>0.14</v>
       </c>
       <c r="D18">
-        <v>480565000</v>
+        <v>2.27</v>
       </c>
       <c r="E18">
-        <v>480567000</v>
+        <v>2.33</v>
       </c>
       <c r="F18">
-        <v>480518000</v>
+        <v>2.47</v>
       </c>
       <c r="G18">
-        <v>480718000</v>
+        <v>2.62</v>
       </c>
       <c r="H18">
-        <v>480677000</v>
+        <v>2.8</v>
       </c>
       <c r="I18">
-        <v>480836000</v>
+        <v>2.4</v>
       </c>
       <c r="J18">
-        <v>480748000</v>
+        <v>2.45</v>
       </c>
       <c r="K18">
-        <v>480429000</v>
+        <v>2.24</v>
       </c>
       <c r="L18">
-        <v>480409000</v>
+        <v>2.24</v>
       </c>
       <c r="M18">
-        <v>480757000</v>
+        <v>1.68</v>
       </c>
       <c r="N18">
-        <v>480481000</v>
+        <v>2.75</v>
       </c>
       <c r="O18">
-        <v>480088000</v>
+        <v>1.95</v>
       </c>
       <c r="P18">
-        <v>482067000</v>
+        <v>1.54</v>
       </c>
       <c r="Q18">
-        <v>480099000</v>
+        <v>2.32</v>
       </c>
       <c r="R18">
-        <v>483591000</v>
+        <v>2.64</v>
       </c>
       <c r="S18">
-        <v>484441000</v>
+        <v>3.14</v>
       </c>
       <c r="T18">
-        <v>484248000</v>
+        <v>1.01</v>
       </c>
       <c r="U18">
-        <v>484244000</v>
+        <v>0.88</v>
       </c>
       <c r="V18">
-        <v>483284000</v>
+        <v>2.39</v>
       </c>
       <c r="W18">
-        <v>482984000</v>
+        <v>2.65</v>
       </c>
       <c r="X18">
-        <v>488077000</v>
+        <v>2.21</v>
       </c>
       <c r="Y18">
-        <v>483958000</v>
+        <v>1.93</v>
       </c>
       <c r="Z18">
-        <v>489810000</v>
+        <v>2.2</v>
       </c>
       <c r="AA18">
-        <v>495011300</v>
+        <v>2.13</v>
       </c>
       <c r="AB18">
-        <v>510700000</v>
+        <v>2.1</v>
       </c>
       <c r="AC18">
-        <v>505976300</v>
+        <v>1.69</v>
       </c>
       <c r="AD18">
-        <v>513576200</v>
+        <v>2.09</v>
       </c>
       <c r="AE18">
-        <v>521595000</v>
+        <v>2.06</v>
       </c>
       <c r="AF18">
-        <v>532706200</v>
+        <v>1.88</v>
       </c>
       <c r="AG18">
-        <v>531515000</v>
+        <v>1.85</v>
       </c>
       <c r="AH18">
-        <v>533922500</v>
+        <v>2.02</v>
       </c>
       <c r="AI18">
-        <v>537547500</v>
+        <v>1.94</v>
       </c>
       <c r="AJ18">
-        <v>537705000</v>
+        <v>1.83</v>
       </c>
       <c r="AK18">
-        <v>536980000</v>
+        <v>1.65</v>
       </c>
       <c r="AL18">
-        <v>538010000</v>
+        <v>1.81</v>
       </c>
       <c r="AM18">
-        <v>538300000</v>
+        <v>1.74</v>
       </c>
       <c r="AN18">
-        <v>537465000</v>
-      </c>
-      <c r="AO18">
-        <v>537627500</v>
+        <v>1.63</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.5603</v>
+        <v>6.77</v>
       </c>
       <c r="C19">
-        <v>0.6177</v>
+        <v>0.14</v>
       </c>
       <c r="D19">
-        <v>0.6284999999999999</v>
+        <v>2.26</v>
       </c>
       <c r="E19">
-        <v>0.5998</v>
+        <v>2.31</v>
       </c>
       <c r="F19">
-        <v>0.5936</v>
+        <v>2.45</v>
       </c>
       <c r="G19">
-        <v>0.6104000000000001</v>
+        <v>2.59</v>
       </c>
       <c r="H19">
-        <v>0.6133</v>
+        <v>2.77</v>
       </c>
       <c r="I19">
-        <v>0.6037</v>
+        <v>2.38</v>
       </c>
       <c r="J19">
-        <v>0.5898</v>
+        <v>2.43</v>
       </c>
       <c r="K19">
-        <v>0.6175</v>
+        <v>2.22</v>
       </c>
       <c r="L19">
-        <v>0.6389</v>
+        <v>2.22</v>
       </c>
       <c r="M19">
-        <v>0.6196</v>
+        <v>1.66</v>
       </c>
       <c r="N19">
-        <v>0.6259</v>
+        <v>2.72</v>
       </c>
       <c r="O19">
-        <v>0.6501</v>
+        <v>1.92</v>
       </c>
       <c r="P19">
-        <v>0.6478</v>
+        <v>1.51</v>
       </c>
       <c r="Q19">
-        <v>0.6316000000000001</v>
+        <v>2.27</v>
       </c>
       <c r="R19">
-        <v>0.6484</v>
+        <v>2.58</v>
       </c>
       <c r="S19">
-        <v>0.6828</v>
+        <v>3.07</v>
       </c>
       <c r="T19">
-        <v>0.6985</v>
+        <v>0.98</v>
       </c>
       <c r="U19">
-        <v>0.6686</v>
+        <v>0.85</v>
       </c>
       <c r="V19">
-        <v>0.6674</v>
+        <v>2.33</v>
       </c>
       <c r="W19">
-        <v>0.6819</v>
+        <v>2.58</v>
       </c>
       <c r="X19">
-        <v>0.6906</v>
+        <v>2.16</v>
       </c>
       <c r="Y19">
-        <v>0.6634</v>
+        <v>1.88</v>
       </c>
       <c r="Z19">
-        <v>0.6651</v>
+        <v>2.15</v>
       </c>
       <c r="AA19">
-        <v>0.6853</v>
+        <v>2.08</v>
       </c>
       <c r="AB19">
-        <v>0.7043</v>
+        <v>2.05</v>
       </c>
       <c r="AC19">
-        <v>0.6860000000000001</v>
+        <v>1.66</v>
       </c>
       <c r="AD19">
-        <v>0.6862</v>
+        <v>2.05</v>
       </c>
       <c r="AE19">
-        <v>0.7024</v>
+        <v>2.02</v>
       </c>
       <c r="AF19">
-        <v>0.7118</v>
+        <v>1.85</v>
       </c>
       <c r="AG19">
-        <v>0.6802</v>
+        <v>1.81</v>
       </c>
       <c r="AH19">
-        <v>0.6944</v>
+        <v>1.98</v>
       </c>
       <c r="AI19">
-        <v>0.7020999999999999</v>
+        <v>1.91</v>
       </c>
       <c r="AJ19">
-        <v>0.7145</v>
+        <v>1.79</v>
       </c>
       <c r="AK19">
-        <v>0.6803</v>
+        <v>1.62</v>
       </c>
       <c r="AL19">
-        <v>0.6915</v>
+        <v>1.78</v>
       </c>
       <c r="AM19">
-        <v>0.6953</v>
+        <v>1.71</v>
       </c>
       <c r="AN19">
-        <v>0.6965</v>
-      </c>
-      <c r="AO19">
-        <v>0.6787</v>
+        <v>1.61</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.2861</v>
+        <v>568800000</v>
       </c>
       <c r="C20">
-        <v>0.3406</v>
+        <v>571000000</v>
       </c>
       <c r="D20">
-        <v>0.247</v>
+        <v>572300000</v>
       </c>
       <c r="E20">
-        <v>0.3346</v>
+        <v>579000000</v>
       </c>
       <c r="F20">
-        <v>0.3239</v>
+        <v>579600000</v>
       </c>
       <c r="G20">
-        <v>0.319</v>
+        <v>581000000</v>
       </c>
       <c r="H20">
-        <v>0.2069</v>
+        <v>580500000</v>
       </c>
       <c r="I20">
-        <v>0.3085</v>
+        <v>577600000</v>
       </c>
       <c r="J20">
-        <v>0.335</v>
+        <v>577800000</v>
       </c>
       <c r="K20">
-        <v>0.5139</v>
+        <v>577000000</v>
       </c>
       <c r="L20">
-        <v>0.2638</v>
+        <v>576800000</v>
       </c>
       <c r="M20">
-        <v>0.3382</v>
+        <v>577000000</v>
       </c>
       <c r="N20">
-        <v>0.3559</v>
+        <v>576500000</v>
       </c>
       <c r="O20">
-        <v>0.3238</v>
+        <v>577700000</v>
       </c>
       <c r="P20">
-        <v>0.3065</v>
+        <v>577500000</v>
       </c>
       <c r="Q20">
-        <v>0.354</v>
+        <v>588500000</v>
       </c>
       <c r="R20">
-        <v>0.3648</v>
+        <v>585600000</v>
       </c>
       <c r="S20">
-        <v>0.3446</v>
+        <v>591400000</v>
       </c>
       <c r="T20">
-        <v>0.2005</v>
+        <v>596200000</v>
       </c>
       <c r="U20">
-        <v>0.3485</v>
+        <v>597500000</v>
       </c>
       <c r="V20">
-        <v>0.3818</v>
+        <v>597600000</v>
       </c>
       <c r="W20">
-        <v>0.3402</v>
+        <v>598100000</v>
       </c>
       <c r="X20">
-        <v>0.3353</v>
+        <v>598100000</v>
       </c>
       <c r="Y20">
-        <v>0.3379</v>
+        <v>604700000</v>
       </c>
       <c r="Z20">
-        <v>0.3506</v>
+        <v>604400000</v>
       </c>
       <c r="AA20">
-        <v>0.3222</v>
+        <v>606900000</v>
       </c>
       <c r="AB20">
-        <v>0.9986</v>
+        <v>607400000</v>
       </c>
       <c r="AC20">
-        <v>0.3436</v>
+        <v>625600000</v>
       </c>
       <c r="AD20">
-        <v>0.3536</v>
+        <v>620600000</v>
       </c>
       <c r="AE20">
-        <v>0.3247</v>
+        <v>631300000</v>
       </c>
       <c r="AF20">
-        <v>0.3126</v>
+        <v>636200000</v>
       </c>
       <c r="AG20">
-        <v>0.3346</v>
+        <v>649200000</v>
       </c>
       <c r="AH20">
-        <v>0.3455</v>
+        <v>645300000</v>
       </c>
       <c r="AI20">
-        <v>0.3135</v>
+        <v>652000000</v>
       </c>
       <c r="AJ20">
-        <v>0.2725</v>
+        <v>661500000</v>
       </c>
       <c r="AK20">
-        <v>0.3261</v>
+        <v>681900000</v>
       </c>
       <c r="AL20">
-        <v>0.3733</v>
+        <v>679800000</v>
       </c>
       <c r="AM20">
-        <v>0.3163</v>
+        <v>688200000</v>
       </c>
       <c r="AN20">
-        <v>0.2686</v>
-      </c>
-      <c r="AO20">
-        <v>0.3173</v>
+        <v>691100000</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.2724</v>
+        <v>570000000</v>
       </c>
       <c r="C21">
-        <v>0.3237</v>
+        <v>572700000</v>
       </c>
       <c r="D21">
-        <v>0.2169</v>
+        <v>575000000</v>
       </c>
       <c r="E21">
-        <v>0.3163</v>
+        <v>585300000</v>
       </c>
       <c r="F21">
-        <v>0.3028</v>
+        <v>586300000</v>
       </c>
       <c r="G21">
-        <v>0.2969</v>
+        <v>588600000</v>
       </c>
       <c r="H21">
-        <v>0.181</v>
+        <v>586300000</v>
       </c>
       <c r="I21">
-        <v>0.2843</v>
+        <v>582200000</v>
       </c>
       <c r="J21">
-        <v>0.3137</v>
+        <v>582400000</v>
       </c>
       <c r="K21">
-        <v>0.4861</v>
+        <v>580800000</v>
       </c>
       <c r="L21">
-        <v>0.2341</v>
+        <v>581500000</v>
       </c>
       <c r="M21">
-        <v>0.3159</v>
+        <v>585100000</v>
       </c>
       <c r="N21">
-        <v>0.3347</v>
+        <v>583000000</v>
       </c>
       <c r="O21">
-        <v>0.2977</v>
+        <v>586100000</v>
       </c>
       <c r="P21">
-        <v>0.2769</v>
+        <v>588500000</v>
       </c>
       <c r="Q21">
-        <v>0.3142</v>
+        <v>602000000</v>
       </c>
       <c r="R21">
-        <v>0.3407</v>
+        <v>598400000</v>
       </c>
       <c r="S21">
-        <v>0.3159</v>
+        <v>604200000</v>
       </c>
       <c r="T21">
-        <v>0.1746</v>
+        <v>612700000</v>
       </c>
       <c r="U21">
-        <v>0.3292</v>
+        <v>612700000</v>
       </c>
       <c r="V21">
-        <v>0.3621</v>
+        <v>612700000</v>
       </c>
       <c r="W21">
-        <v>0.3167</v>
+        <v>612800000</v>
       </c>
       <c r="X21">
-        <v>0.2849</v>
+        <v>612000000</v>
       </c>
       <c r="Y21">
-        <v>0.3193</v>
+        <v>618700000</v>
       </c>
       <c r="Z21">
-        <v>0.3325</v>
+        <v>618800000</v>
       </c>
       <c r="AA21">
-        <v>0.3041</v>
+        <v>620900000</v>
       </c>
       <c r="AB21">
-        <v>0.9835</v>
+        <v>621300000</v>
       </c>
       <c r="AC21">
-        <v>0.3288</v>
+        <v>637200000</v>
       </c>
       <c r="AD21">
-        <v>0.3396</v>
+        <v>631200000</v>
       </c>
       <c r="AE21">
-        <v>0.3119</v>
+        <v>643000000</v>
       </c>
       <c r="AF21">
-        <v>0.3058</v>
+        <v>649200000</v>
       </c>
       <c r="AG21">
-        <v>0.3272</v>
+        <v>662000000</v>
       </c>
       <c r="AH21">
-        <v>0.3375</v>
+        <v>657900000</v>
       </c>
       <c r="AI21">
-        <v>0.3035</v>
+        <v>664600000</v>
       </c>
       <c r="AJ21">
-        <v>0.2638</v>
+        <v>674500000</v>
       </c>
       <c r="AK21">
-        <v>0.3184</v>
+        <v>693600000</v>
       </c>
       <c r="AL21">
-        <v>0.3661</v>
+        <v>691800000</v>
       </c>
       <c r="AM21">
-        <v>0.3076</v>
+        <v>699100000</v>
       </c>
       <c r="AN21">
-        <v>0.2443</v>
-      </c>
-      <c r="AO21">
-        <v>0.3066</v>
+        <v>702100000</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.2075</v>
+        <v>0.4514</v>
       </c>
       <c r="C22">
-        <v>0.2473</v>
+        <v>0.4147</v>
       </c>
       <c r="D22">
-        <v>0.1516</v>
+        <v>0.4534</v>
       </c>
       <c r="E22">
-        <v>0.2498</v>
+        <v>0.4545</v>
       </c>
       <c r="F22">
-        <v>0.2374</v>
+        <v>0.4573</v>
       </c>
       <c r="G22">
-        <v>0.2119</v>
+        <v>0.4727</v>
       </c>
       <c r="H22">
-        <v>0.1478</v>
+        <v>0.4888</v>
       </c>
       <c r="I22">
-        <v>0.2404</v>
+        <v>0.4888</v>
       </c>
       <c r="J22">
-        <v>0.2437</v>
+        <v>0.4847</v>
       </c>
       <c r="K22">
-        <v>0.4303</v>
+        <v>0.4698</v>
       </c>
       <c r="L22">
-        <v>0.1805</v>
+        <v>0.4911</v>
       </c>
       <c r="M22">
-        <v>0.257</v>
+        <v>0.4668</v>
       </c>
       <c r="N22">
-        <v>0.2851</v>
+        <v>0.4759</v>
       </c>
       <c r="O22">
-        <v>0.2428</v>
+        <v>0.4722</v>
       </c>
       <c r="P22">
-        <v>0.2137</v>
+        <v>0.4519</v>
       </c>
       <c r="Q22">
-        <v>0.2511</v>
+        <v>0.489</v>
       </c>
       <c r="R22">
-        <v>0.2736</v>
+        <v>0.4898</v>
       </c>
       <c r="S22">
-        <v>0.2611</v>
+        <v>0.4962</v>
       </c>
       <c r="T22">
-        <v>0.1501</v>
+        <v>0.4883</v>
       </c>
       <c r="U22">
-        <v>0.2164</v>
+        <v>0.4876</v>
       </c>
       <c r="V22">
-        <v>0.2615</v>
+        <v>0.5033</v>
       </c>
       <c r="W22">
-        <v>0.2462</v>
+        <v>0.4853</v>
       </c>
       <c r="X22">
-        <v>0.2101</v>
+        <v>0.4949</v>
       </c>
       <c r="Y22">
-        <v>0.2252</v>
+        <v>0.4823</v>
       </c>
       <c r="Z22">
-        <v>0.2373</v>
+        <v>0.501</v>
       </c>
       <c r="AA22">
-        <v>0.2179</v>
+        <v>0.5042</v>
       </c>
       <c r="AB22">
-        <v>0.7166</v>
+        <v>0.5036</v>
       </c>
       <c r="AC22">
-        <v>0.2349</v>
+        <v>0.4756</v>
       </c>
       <c r="AD22">
-        <v>0.2342</v>
+        <v>0.4973</v>
       </c>
       <c r="AE22">
-        <v>0.2232</v>
+        <v>0.498</v>
       </c>
       <c r="AF22">
-        <v>0.1894</v>
+        <v>0.4958</v>
       </c>
       <c r="AG22">
-        <v>0.2288</v>
+        <v>0.4783</v>
       </c>
       <c r="AH22">
-        <v>0.2372</v>
+        <v>0.4832</v>
       </c>
       <c r="AI22">
-        <v>0.2128</v>
+        <v>0.4856</v>
       </c>
       <c r="AJ22">
-        <v>0.1928</v>
+        <v>0.4853</v>
       </c>
       <c r="AK22">
-        <v>0.2263</v>
+        <v>0.4747</v>
       </c>
       <c r="AL22">
-        <v>0.2473</v>
+        <v>0.476</v>
       </c>
       <c r="AM22">
-        <v>0.2085</v>
+        <v>0.4823</v>
       </c>
       <c r="AN22">
-        <v>0.173</v>
-      </c>
-      <c r="AO22">
-        <v>0.2102</v>
+        <v>0.4801</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>332000000</v>
+        <v>0.4822</v>
       </c>
       <c r="C23">
-        <v>363000000</v>
+        <v>0.0126</v>
       </c>
       <c r="D23">
-        <v>265000000</v>
+        <v>0.1859</v>
       </c>
       <c r="E23">
-        <v>367000000</v>
+        <v>0.1876</v>
       </c>
       <c r="F23">
-        <v>343000000</v>
+        <v>0.2</v>
       </c>
       <c r="G23">
-        <v>308000000</v>
+        <v>0.2202</v>
       </c>
       <c r="H23">
-        <v>187000000</v>
+        <v>0.2253</v>
       </c>
       <c r="I23">
-        <v>300000000</v>
+        <v>0.2154</v>
       </c>
       <c r="J23">
-        <v>350000000</v>
+        <v>0.2286</v>
       </c>
       <c r="K23">
-        <v>406000000</v>
+        <v>0.2425</v>
       </c>
       <c r="L23">
-        <v>206000000</v>
+        <v>0.2059</v>
       </c>
       <c r="M23">
-        <v>323000000</v>
+        <v>0.1634</v>
       </c>
       <c r="N23">
-        <v>370000000</v>
+        <v>0.2517</v>
       </c>
       <c r="O23">
-        <v>266000000</v>
+        <v>0.2083</v>
       </c>
       <c r="P23">
-        <v>248000000</v>
+        <v>0.1445</v>
       </c>
       <c r="Q23">
-        <v>336000000</v>
+        <v>0.2244</v>
       </c>
       <c r="R23">
-        <v>350000000</v>
+        <v>0.2473</v>
       </c>
       <c r="S23">
-        <v>282000000</v>
+        <v>0.2862</v>
       </c>
       <c r="T23">
-        <v>163000000</v>
+        <v>0.1216</v>
       </c>
       <c r="U23">
-        <v>323000000</v>
+        <v>0.2239</v>
       </c>
       <c r="V23">
-        <v>365000000</v>
+        <v>0.2457</v>
       </c>
       <c r="W23">
-        <v>261000000</v>
+        <v>0.2757</v>
       </c>
       <c r="X23">
-        <v>249000000</v>
+        <v>0.2267</v>
       </c>
       <c r="Y23">
-        <v>287000000</v>
+        <v>0.2004</v>
       </c>
       <c r="Z23">
-        <v>304000000</v>
+        <v>0.247</v>
       </c>
       <c r="AA23">
-        <v>228000000</v>
+        <v>0.2435</v>
       </c>
       <c r="AB23">
-        <v>742000000</v>
+        <v>0.2413</v>
       </c>
       <c r="AC23">
-        <v>291000000</v>
+        <v>0.2055</v>
       </c>
       <c r="AD23">
-        <v>316000000</v>
+        <v>0.2433</v>
       </c>
       <c r="AE23">
-        <v>240000000</v>
+        <v>0.2394</v>
       </c>
       <c r="AF23">
-        <v>244000000</v>
+        <v>0.2283</v>
       </c>
       <c r="AG23">
-        <v>285000000</v>
+        <v>0.2153</v>
       </c>
       <c r="AH23">
-        <v>315000000</v>
+        <v>0.2336</v>
       </c>
       <c r="AI23">
-        <v>234000000</v>
+        <v>0.2282</v>
       </c>
       <c r="AJ23">
-        <v>202000000</v>
+        <v>0.2191</v>
       </c>
       <c r="AK23">
-        <v>267000000</v>
+        <v>0.2086</v>
       </c>
       <c r="AL23">
-        <v>323000000</v>
+        <v>0.2197</v>
       </c>
       <c r="AM23">
-        <v>229000000</v>
+        <v>0.2196</v>
       </c>
       <c r="AN23">
-        <v>192000000</v>
-      </c>
-      <c r="AO23">
-        <v>249000000</v>
+        <v>0.2156</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>313000000</v>
+        <v>0.4794</v>
       </c>
       <c r="C24">
-        <v>343000000</v>
+        <v>0.0069</v>
       </c>
       <c r="D24">
-        <v>246000000</v>
+        <v>0.1816</v>
       </c>
       <c r="E24">
-        <v>347000000</v>
+        <v>0.1816</v>
       </c>
       <c r="F24">
-        <v>322000000</v>
+        <v>0.1965</v>
       </c>
       <c r="G24">
-        <v>289000000</v>
+        <v>0.2165</v>
       </c>
       <c r="H24">
-        <v>168000000</v>
+        <v>0.2197</v>
       </c>
       <c r="I24">
-        <v>281000000</v>
+        <v>0.2017</v>
       </c>
       <c r="J24">
-        <v>330000000</v>
+        <v>0.2187</v>
       </c>
       <c r="K24">
-        <v>387000000</v>
+        <v>0.2299</v>
       </c>
       <c r="L24">
-        <v>187000000</v>
+        <v>0.1967</v>
       </c>
       <c r="M24">
-        <v>304000000</v>
+        <v>0.1409</v>
       </c>
       <c r="N24">
-        <v>352000000</v>
+        <v>0.246</v>
       </c>
       <c r="O24">
-        <v>248000000</v>
+        <v>0.177</v>
       </c>
       <c r="P24">
-        <v>228000000</v>
+        <v>0.1384</v>
       </c>
       <c r="Q24">
-        <v>320000000</v>
+        <v>0.2165</v>
       </c>
       <c r="R24">
-        <v>332000000</v>
+        <v>0.241</v>
       </c>
       <c r="S24">
-        <v>264000000</v>
+        <v>0.2801</v>
       </c>
       <c r="T24">
-        <v>147000000</v>
+        <v>0.1166</v>
       </c>
       <c r="U24">
-        <v>306000000</v>
+        <v>0.2093</v>
       </c>
       <c r="V24">
-        <v>349000000</v>
+        <v>0.2444</v>
       </c>
       <c r="W24">
-        <v>246000000</v>
+        <v>0.2743</v>
       </c>
       <c r="X24">
-        <v>233000000</v>
+        <v>0.226</v>
       </c>
       <c r="Y24">
-        <v>273000000</v>
+        <v>0.2197</v>
       </c>
       <c r="Z24">
-        <v>291000000</v>
+        <v>0.2415</v>
       </c>
       <c r="AA24">
-        <v>213000000</v>
+        <v>0.2395</v>
       </c>
       <c r="AB24">
-        <v>726000000</v>
+        <v>0.2357</v>
       </c>
       <c r="AC24">
-        <v>278000000</v>
+        <v>0.2005</v>
       </c>
       <c r="AD24">
-        <v>302000000</v>
+        <v>0.2392</v>
       </c>
       <c r="AE24">
-        <v>227000000</v>
+        <v>0.2358</v>
       </c>
       <c r="AF24">
-        <v>231000000</v>
+        <v>0.2247</v>
       </c>
       <c r="AG24">
-        <v>272000000</v>
+        <v>0.2122</v>
       </c>
       <c r="AH24">
-        <v>303000000</v>
+        <v>0.231</v>
       </c>
       <c r="AI24">
-        <v>221000000</v>
+        <v>0.2238</v>
       </c>
       <c r="AJ24">
-        <v>188000000</v>
+        <v>0.2156</v>
       </c>
       <c r="AK24">
-        <v>255000000</v>
+        <v>0.2058</v>
       </c>
       <c r="AL24">
-        <v>311000000</v>
+        <v>0.2168</v>
       </c>
       <c r="AM24">
-        <v>217000000</v>
+        <v>0.2156</v>
       </c>
       <c r="AN24">
-        <v>177000000</v>
-      </c>
-      <c r="AO24">
-        <v>237000000</v>
+        <v>0.2118</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>227000000</v>
+        <v>0.4477</v>
       </c>
       <c r="C25">
-        <v>249000000</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D25">
-        <v>151000000</v>
+        <v>0.1471</v>
       </c>
       <c r="E25">
-        <v>259000000</v>
+        <v>0.1555</v>
       </c>
       <c r="F25">
-        <v>236000000</v>
+        <v>0.1604</v>
       </c>
       <c r="G25">
-        <v>192000000</v>
+        <v>0.1703</v>
       </c>
       <c r="H25">
-        <v>120000000</v>
+        <v>0.1835</v>
       </c>
       <c r="I25">
-        <v>219000000</v>
+        <v>0.1637</v>
       </c>
       <c r="J25">
-        <v>240000000</v>
+        <v>0.1713</v>
       </c>
       <c r="K25">
-        <v>324000000</v>
+        <v>0.182</v>
       </c>
       <c r="L25">
-        <v>128000000</v>
+        <v>0.162</v>
       </c>
       <c r="M25">
-        <v>231000000</v>
+        <v>0.1129</v>
       </c>
       <c r="N25">
-        <v>282000000</v>
+        <v>0.1981</v>
       </c>
       <c r="O25">
-        <v>186000000</v>
+        <v>0.1379</v>
       </c>
       <c r="P25">
-        <v>159000000</v>
+        <v>0.1133</v>
       </c>
       <c r="Q25">
-        <v>227000000</v>
+        <v>0.1695</v>
       </c>
       <c r="R25">
-        <v>249000000</v>
+        <v>0.1893</v>
       </c>
       <c r="S25">
-        <v>200000000</v>
+        <v>0.2213</v>
       </c>
       <c r="T25">
-        <v>110000000</v>
+        <v>0.0727</v>
       </c>
       <c r="U25">
-        <v>190000000</v>
+        <v>0.0655</v>
       </c>
       <c r="V25">
-        <v>239000000</v>
+        <v>0.1749</v>
       </c>
       <c r="W25">
-        <v>178000000</v>
+        <v>0.2027</v>
       </c>
       <c r="X25">
-        <v>146000000</v>
+        <v>0.1722</v>
       </c>
       <c r="Y25">
-        <v>182000000</v>
+        <v>0.1576</v>
       </c>
       <c r="Z25">
-        <v>197000000</v>
+        <v>0.1724</v>
       </c>
       <c r="AA25">
-        <v>144000000</v>
+        <v>0.1685</v>
       </c>
       <c r="AB25">
-        <v>521000000</v>
+        <v>0.1721</v>
       </c>
       <c r="AC25">
-        <v>190000000</v>
+        <v>0.1422</v>
       </c>
       <c r="AD25">
-        <v>200000000</v>
+        <v>0.168</v>
       </c>
       <c r="AE25">
-        <v>156000000</v>
+        <v>0.1691</v>
       </c>
       <c r="AF25">
-        <v>140000000</v>
+        <v>0.1582</v>
       </c>
       <c r="AG25">
-        <v>186000000</v>
+        <v>0.1527</v>
       </c>
       <c r="AH25">
-        <v>208000000</v>
+        <v>0.1601</v>
       </c>
       <c r="AI25">
-        <v>150000000</v>
+        <v>0.1558</v>
       </c>
       <c r="AJ25">
-        <v>133000000</v>
+        <v>0.1541</v>
       </c>
       <c r="AK25">
-        <v>177000000</v>
+        <v>0.1457</v>
       </c>
       <c r="AL25">
-        <v>206000000</v>
+        <v>0.1554</v>
       </c>
       <c r="AM25">
-        <v>143000000</v>
+        <v>0.1544</v>
       </c>
       <c r="AN25">
-        <v>114000000</v>
-      </c>
-      <c r="AO25">
-        <v>157000000</v>
+        <v>0.1479</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:40">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>227000000</v>
+        <v>4606000000</v>
       </c>
       <c r="C26">
-        <v>249000000</v>
+        <v>572000000</v>
       </c>
       <c r="D26">
-        <v>151000000</v>
+        <v>2100000000</v>
       </c>
       <c r="E26">
-        <v>259000000</v>
+        <v>2123000000</v>
       </c>
       <c r="F26">
-        <v>236000000</v>
+        <v>2264000000</v>
       </c>
       <c r="G26">
-        <v>192000000</v>
+        <v>2443000000</v>
       </c>
       <c r="H26">
-        <v>120000000</v>
+        <v>2454000000</v>
       </c>
       <c r="I26">
-        <v>219000000</v>
+        <v>2347000000</v>
       </c>
       <c r="J26">
-        <v>240000000</v>
+        <v>2390000000</v>
       </c>
       <c r="K26">
-        <v>324000000</v>
+        <v>2232000000</v>
       </c>
       <c r="L26">
-        <v>128000000</v>
+        <v>2103000000</v>
       </c>
       <c r="M26">
-        <v>231000000</v>
+        <v>1788000000</v>
       </c>
       <c r="N26">
-        <v>282000000</v>
+        <v>2390000000</v>
       </c>
       <c r="O26">
-        <v>186000000</v>
+        <v>2078000000</v>
       </c>
       <c r="P26">
-        <v>159000000</v>
+        <v>1511000000</v>
       </c>
       <c r="Q26">
-        <v>227000000</v>
+        <v>2154000000</v>
       </c>
       <c r="R26">
-        <v>249000000</v>
+        <v>2371000000</v>
       </c>
       <c r="S26">
-        <v>200000000</v>
+        <v>2781000000</v>
       </c>
       <c r="T26">
-        <v>110000000</v>
+        <v>1389000000</v>
       </c>
       <c r="U26">
-        <v>190000000</v>
+        <v>2138000000</v>
       </c>
       <c r="V26">
-        <v>239000000</v>
+        <v>2385000000</v>
       </c>
       <c r="W26">
-        <v>178000000</v>
+        <v>2533000000</v>
       </c>
       <c r="X26">
-        <v>146000000</v>
+        <v>2180000000</v>
       </c>
       <c r="Y26">
-        <v>182000000</v>
+        <v>1853000000</v>
       </c>
       <c r="Z26">
-        <v>197000000</v>
+        <v>2272000000</v>
       </c>
       <c r="AA26">
-        <v>144000000</v>
+        <v>2232000000</v>
       </c>
       <c r="AB26">
-        <v>521000000</v>
+        <v>2144000000</v>
       </c>
       <c r="AC26">
-        <v>190000000</v>
+        <v>1897000000</v>
       </c>
       <c r="AD26">
-        <v>200000000</v>
+        <v>2231000000</v>
       </c>
       <c r="AE26">
-        <v>156000000</v>
+        <v>2184000000</v>
       </c>
       <c r="AF26">
-        <v>140000000</v>
+        <v>2069000000</v>
       </c>
       <c r="AG26">
-        <v>186000000</v>
+        <v>2012000000</v>
       </c>
       <c r="AH26">
-        <v>208000000</v>
+        <v>2251000000</v>
       </c>
       <c r="AI26">
-        <v>150000000</v>
+        <v>2214000000</v>
       </c>
       <c r="AJ26">
-        <v>133000000</v>
+        <v>2066000000</v>
       </c>
       <c r="AK26">
-        <v>177000000</v>
+        <v>1936000000</v>
       </c>
       <c r="AL26">
-        <v>206000000</v>
+        <v>2082000000</v>
       </c>
       <c r="AM26">
-        <v>143000000</v>
+        <v>2037000000</v>
       </c>
       <c r="AN26">
-        <v>114000000</v>
-      </c>
-      <c r="AO26">
-        <v>157000000</v>
+        <v>1982000000</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:40">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.4738</v>
+        <v>4156000000</v>
       </c>
       <c r="C27">
-        <v>0.5197000000000001</v>
+        <v>110000000</v>
       </c>
       <c r="D27">
-        <v>0.3152</v>
+        <v>1641000000</v>
       </c>
       <c r="E27">
-        <v>0.5407999999999999</v>
+        <v>1616000000</v>
       </c>
       <c r="F27">
-        <v>0.4928</v>
+        <v>1788000000</v>
       </c>
       <c r="G27">
-        <v>0.401</v>
+        <v>1971000000</v>
       </c>
       <c r="H27">
-        <v>0.2505</v>
+        <v>1994000000</v>
       </c>
       <c r="I27">
-        <v>0.4576</v>
+        <v>1849000000</v>
       </c>
       <c r="J27">
-        <v>0.5016</v>
+        <v>1909000000</v>
       </c>
       <c r="K27">
-        <v>0.6774</v>
+        <v>1740000000</v>
       </c>
       <c r="L27">
-        <v>0.2676</v>
+        <v>1663000000</v>
       </c>
       <c r="M27">
-        <v>0.4834</v>
+        <v>1325000000</v>
       </c>
       <c r="N27">
-        <v>0.5904</v>
+        <v>2011000000</v>
       </c>
       <c r="O27">
-        <v>0.3896</v>
+        <v>1702000000</v>
       </c>
       <c r="P27">
-        <v>0.3337</v>
+        <v>1136000000</v>
       </c>
       <c r="Q27">
-        <v>0.4756</v>
+        <v>1783000000</v>
       </c>
       <c r="R27">
-        <v>0.5183</v>
+        <v>2016000000</v>
       </c>
       <c r="S27">
-        <v>0.4158</v>
+        <v>2401000000</v>
       </c>
       <c r="T27">
-        <v>0.2287</v>
+        <v>1007000000</v>
       </c>
       <c r="U27">
-        <v>0.3955</v>
+        <v>1789000000</v>
       </c>
       <c r="V27">
-        <v>0.4978</v>
+        <v>2008000000</v>
       </c>
       <c r="W27">
-        <v>0.3708</v>
+        <v>2153000000</v>
       </c>
       <c r="X27">
-        <v>0.3036</v>
+        <v>1742000000</v>
       </c>
       <c r="Y27">
-        <v>0.3787</v>
+        <v>1469000000</v>
       </c>
       <c r="Z27">
-        <v>0.4051</v>
+        <v>1904000000</v>
       </c>
       <c r="AA27">
-        <v>0.2931</v>
+        <v>1866000000</v>
       </c>
       <c r="AB27">
-        <v>1.0318</v>
+        <v>1788000000</v>
       </c>
       <c r="AC27">
-        <v>0.3778</v>
+        <v>1500000000</v>
       </c>
       <c r="AD27">
-        <v>0.3921</v>
+        <v>1876000000</v>
       </c>
       <c r="AE27">
-        <v>0.3011</v>
+        <v>1840000000</v>
       </c>
       <c r="AF27">
-        <v>0.2673</v>
+        <v>1730000000</v>
       </c>
       <c r="AG27">
-        <v>0.3524</v>
+        <v>1662000000</v>
       </c>
       <c r="AH27">
-        <v>0.3923</v>
+        <v>1901000000</v>
       </c>
       <c r="AI27">
-        <v>0.2811</v>
+        <v>1856000000</v>
       </c>
       <c r="AJ27">
-        <v>0.2493</v>
+        <v>1716000000</v>
       </c>
       <c r="AK27">
-        <v>0.3322</v>
+        <v>1579000000</v>
       </c>
       <c r="AL27">
-        <v>0.3858</v>
+        <v>1739000000</v>
       </c>
       <c r="AM27">
-        <v>0.2677</v>
+        <v>1702000000</v>
       </c>
       <c r="AN27">
-        <v>0.2134</v>
-      </c>
-      <c r="AO27">
-        <v>0.2942</v>
+        <v>1646000000</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:40">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.4724</v>
+        <v>3863000000</v>
       </c>
       <c r="C28">
-        <v>0.5183</v>
+        <v>82000000</v>
       </c>
       <c r="D28">
-        <v>0.3143</v>
+        <v>1303000000</v>
       </c>
       <c r="E28">
-        <v>0.5389</v>
+        <v>1340000000</v>
       </c>
       <c r="F28">
-        <v>0.4911</v>
+        <v>1437000000</v>
       </c>
       <c r="G28">
-        <v>0.3994</v>
+        <v>1525000000</v>
       </c>
       <c r="H28">
-        <v>0.2495</v>
+        <v>1627000000</v>
       </c>
       <c r="I28">
-        <v>0.4555</v>
+        <v>1406000000</v>
       </c>
       <c r="J28">
-        <v>0.4992</v>
+        <v>1434000000</v>
       </c>
       <c r="K28">
-        <v>0.6744</v>
+        <v>1303000000</v>
       </c>
       <c r="L28">
-        <v>0.2666</v>
+        <v>1310000000</v>
       </c>
       <c r="M28">
-        <v>0.4805</v>
+        <v>917000000</v>
       </c>
       <c r="N28">
-        <v>0.5869</v>
+        <v>1588000000</v>
       </c>
       <c r="O28">
-        <v>0.3874</v>
+        <v>1131000000</v>
       </c>
       <c r="P28">
-        <v>0.3316</v>
+        <v>893000000</v>
       </c>
       <c r="Q28">
-        <v>0.4728</v>
+        <v>1349000000</v>
       </c>
       <c r="R28">
-        <v>0.5149</v>
+        <v>1546000000</v>
       </c>
       <c r="S28">
-        <v>0.4128</v>
+        <v>1862000000</v>
       </c>
       <c r="T28">
-        <v>0.2252</v>
+        <v>606000000</v>
       </c>
       <c r="U28">
-        <v>0.3924</v>
+        <v>525000000</v>
       </c>
       <c r="V28">
-        <v>0.4945</v>
+        <v>1433000000</v>
       </c>
       <c r="W28">
-        <v>0.3685</v>
+        <v>1585000000</v>
       </c>
       <c r="X28">
-        <v>0.3015</v>
+        <v>1326000000</v>
       </c>
       <c r="Y28">
-        <v>0.3761</v>
+        <v>1156000000</v>
       </c>
       <c r="Z28">
-        <v>0.4022</v>
+        <v>1331000000</v>
       </c>
       <c r="AA28">
-        <v>0.2909</v>
+        <v>1293000000</v>
       </c>
       <c r="AB28">
-        <v>1.0253</v>
+        <v>1278000000</v>
       </c>
       <c r="AC28">
-        <v>0.3755</v>
+        <v>1039000000</v>
       </c>
       <c r="AD28">
-        <v>0.3894</v>
+        <v>1298000000</v>
       </c>
       <c r="AE28">
-        <v>0.2991</v>
+        <v>1303000000</v>
       </c>
       <c r="AF28">
-        <v>0.2655</v>
+        <v>1201000000</v>
       </c>
       <c r="AG28">
-        <v>0.3499</v>
+        <v>1179000000</v>
       </c>
       <c r="AH28">
-        <v>0.3896</v>
+        <v>1311000000</v>
       </c>
       <c r="AI28">
-        <v>0.279</v>
+        <v>1283000000</v>
       </c>
       <c r="AJ28">
-        <v>0.2474</v>
+        <v>1225000000</v>
       </c>
       <c r="AK28">
-        <v>0.3296</v>
+        <v>1116000000</v>
       </c>
       <c r="AL28">
-        <v>0.3829</v>
+        <v>1245000000</v>
       </c>
       <c r="AM28">
-        <v>0.2657</v>
+        <v>1213000000</v>
       </c>
       <c r="AN28">
-        <v>0.2118</v>
-      </c>
-      <c r="AO28">
-        <v>0.292</v>
+        <v>1147000000</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:40">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.4738</v>
+        <v>3863000000</v>
       </c>
       <c r="C29">
-        <v>0.5197000000000001</v>
+        <v>82000000</v>
       </c>
       <c r="D29">
-        <v>0.3152</v>
+        <v>1303000000</v>
       </c>
       <c r="E29">
-        <v>0.5407999999999999</v>
+        <v>1340000000</v>
       </c>
       <c r="F29">
-        <v>0.4928</v>
+        <v>1437000000</v>
       </c>
       <c r="G29">
-        <v>0.401</v>
+        <v>1525000000</v>
       </c>
       <c r="H29">
-        <v>0.2505</v>
+        <v>1627000000</v>
       </c>
       <c r="I29">
-        <v>0.4576</v>
+        <v>1406000000</v>
       </c>
       <c r="J29">
-        <v>0.5016</v>
+        <v>1434000000</v>
       </c>
       <c r="K29">
-        <v>0.6774</v>
+        <v>1303000000</v>
       </c>
       <c r="L29">
-        <v>0.2676</v>
+        <v>1310000000</v>
       </c>
       <c r="M29">
-        <v>0.4834</v>
+        <v>917000000</v>
       </c>
       <c r="N29">
-        <v>0.5904</v>
+        <v>1588000000</v>
       </c>
       <c r="O29">
-        <v>0.3896</v>
+        <v>1131000000</v>
       </c>
       <c r="P29">
-        <v>0.3337</v>
+        <v>893000000</v>
       </c>
       <c r="Q29">
-        <v>0.4756</v>
+        <v>1349000000</v>
       </c>
       <c r="R29">
-        <v>0.5183</v>
+        <v>1546000000</v>
       </c>
       <c r="S29">
-        <v>0.4158</v>
+        <v>1862000000</v>
       </c>
       <c r="T29">
-        <v>0.2287</v>
+        <v>606000000</v>
       </c>
       <c r="U29">
-        <v>0.3955</v>
+        <v>525000000</v>
       </c>
       <c r="V29">
-        <v>0.4978</v>
+        <v>1433000000</v>
       </c>
       <c r="W29">
-        <v>0.3708</v>
+        <v>1585000000</v>
       </c>
       <c r="X29">
-        <v>0.3036</v>
+        <v>1326000000</v>
       </c>
       <c r="Y29">
-        <v>0.3787</v>
+        <v>1156000000</v>
       </c>
       <c r="Z29">
-        <v>0.4051</v>
+        <v>1331000000</v>
       </c>
       <c r="AA29">
-        <v>0.2931</v>
+        <v>1293000000</v>
       </c>
       <c r="AB29">
-        <v>1.0318</v>
+        <v>1278000000</v>
       </c>
       <c r="AC29">
-        <v>0.3778</v>
+        <v>1039000000</v>
       </c>
       <c r="AD29">
-        <v>0.3921</v>
+        <v>1298000000</v>
       </c>
       <c r="AE29">
-        <v>0.3011</v>
+        <v>1303000000</v>
       </c>
       <c r="AF29">
-        <v>0.2673</v>
+        <v>1201000000</v>
       </c>
       <c r="AG29">
-        <v>0.3524</v>
+        <v>1179000000</v>
       </c>
       <c r="AH29">
-        <v>0.3923</v>
+        <v>1311000000</v>
       </c>
       <c r="AI29">
-        <v>0.2811</v>
+        <v>1283000000</v>
       </c>
       <c r="AJ29">
-        <v>0.2493</v>
+        <v>1225000000</v>
       </c>
       <c r="AK29">
-        <v>0.3322</v>
+        <v>1116000000</v>
       </c>
       <c r="AL29">
-        <v>0.3858</v>
+        <v>1245000000</v>
       </c>
       <c r="AM29">
-        <v>0.2677</v>
+        <v>1213000000</v>
       </c>
       <c r="AN29">
-        <v>0.2134</v>
-      </c>
-      <c r="AO29">
-        <v>0.2942</v>
+        <v>1147000000</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:40">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.4724</v>
+        <v>6.7915</v>
       </c>
       <c r="C30">
-        <v>0.5183</v>
+        <v>0.1436</v>
       </c>
       <c r="D30">
-        <v>0.3143</v>
+        <v>2.2768</v>
       </c>
       <c r="E30">
-        <v>0.5389</v>
+        <v>2.3332</v>
       </c>
       <c r="F30">
-        <v>0.4911</v>
+        <v>2.4793</v>
       </c>
       <c r="G30">
-        <v>0.3994</v>
+        <v>2.6248</v>
       </c>
       <c r="H30">
-        <v>0.2495</v>
+        <v>2.8028</v>
       </c>
       <c r="I30">
-        <v>0.4555</v>
+        <v>2.4296</v>
       </c>
       <c r="J30">
-        <v>0.4992</v>
+        <v>2.4818</v>
       </c>
       <c r="K30">
-        <v>0.6744</v>
+        <v>2.2582</v>
       </c>
       <c r="L30">
-        <v>0.2666</v>
+        <v>2.2712</v>
       </c>
       <c r="M30">
-        <v>0.4805</v>
+        <v>1.5906</v>
       </c>
       <c r="N30">
-        <v>0.5869</v>
+        <v>2.7546</v>
       </c>
       <c r="O30">
-        <v>0.3874</v>
+        <v>1.9578</v>
       </c>
       <c r="P30">
-        <v>0.3316</v>
+        <v>1.5463</v>
       </c>
       <c r="Q30">
-        <v>0.4728</v>
+        <v>2.3081</v>
       </c>
       <c r="R30">
-        <v>0.5149</v>
+        <v>2.64</v>
       </c>
       <c r="S30">
-        <v>0.4128</v>
+        <v>3.1485</v>
       </c>
       <c r="T30">
-        <v>0.2252</v>
+        <v>1.0164</v>
       </c>
       <c r="U30">
-        <v>0.3924</v>
+        <v>0.8839</v>
       </c>
       <c r="V30">
-        <v>0.4945</v>
+        <v>2.3979</v>
       </c>
       <c r="W30">
-        <v>0.3685</v>
+        <v>2.6501</v>
       </c>
       <c r="X30">
-        <v>0.3015</v>
+        <v>2.217</v>
       </c>
       <c r="Y30">
-        <v>0.3761</v>
+        <v>1.9277</v>
       </c>
       <c r="Z30">
-        <v>0.4022</v>
+        <v>2.2022</v>
       </c>
       <c r="AA30">
-        <v>0.2909</v>
+        <v>2.1305</v>
       </c>
       <c r="AB30">
-        <v>1.0253</v>
+        <v>2.1041</v>
       </c>
       <c r="AC30">
-        <v>0.3755</v>
+        <v>1.6949</v>
       </c>
       <c r="AD30">
-        <v>0.3894</v>
+        <v>2.0915</v>
       </c>
       <c r="AE30">
-        <v>0.2991</v>
+        <v>2.064</v>
       </c>
       <c r="AF30">
-        <v>0.2655</v>
+        <v>1.8878</v>
       </c>
       <c r="AG30">
-        <v>0.3499</v>
+        <v>1.8474</v>
       </c>
       <c r="AH30">
-        <v>0.3896</v>
+        <v>2.0316</v>
       </c>
       <c r="AI30">
-        <v>0.279</v>
+        <v>1.9678</v>
       </c>
       <c r="AJ30">
-        <v>0.2474</v>
+        <v>1.8519</v>
       </c>
       <c r="AK30">
-        <v>0.3296</v>
+        <v>1.6696</v>
       </c>
       <c r="AL30">
-        <v>0.3829</v>
+        <v>1.8314</v>
       </c>
       <c r="AM30">
-        <v>0.2657</v>
+        <v>1.7626</v>
       </c>
       <c r="AN30">
-        <v>0.2118</v>
-      </c>
-      <c r="AO30">
-        <v>0.292</v>
+        <v>1.6597</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:40">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>480549000</v>
+        <v>6.7772</v>
       </c>
       <c r="C31">
-        <v>480444000</v>
+        <v>0.1432</v>
       </c>
       <c r="D31">
-        <v>480456000</v>
+        <v>2.2661</v>
       </c>
       <c r="E31">
-        <v>480567000</v>
+        <v>2.313</v>
       </c>
       <c r="F31">
-        <v>480518000</v>
+        <v>2.451</v>
       </c>
       <c r="G31">
-        <v>480718000</v>
+        <v>2.5909</v>
       </c>
       <c r="H31">
-        <v>480713000</v>
+        <v>2.775</v>
       </c>
       <c r="I31">
-        <v>480836000</v>
+        <v>2.4077</v>
       </c>
       <c r="J31">
-        <v>480748000</v>
+        <v>2.4622</v>
       </c>
       <c r="K31">
-        <v>480429000</v>
+        <v>2.2435</v>
       </c>
       <c r="L31">
-        <v>480342000</v>
+        <v>2.2528</v>
       </c>
       <c r="M31">
-        <v>480757000</v>
+        <v>1.5696</v>
       </c>
       <c r="N31">
-        <v>480481000</v>
+        <v>2.7238</v>
       </c>
       <c r="O31">
-        <v>480088000</v>
+        <v>1.9297</v>
       </c>
       <c r="P31">
-        <v>480047000</v>
+        <v>1.5174</v>
       </c>
       <c r="Q31">
-        <v>480099000</v>
+        <v>2.2543</v>
       </c>
       <c r="R31">
-        <v>483591000</v>
+        <v>2.5836</v>
       </c>
       <c r="S31">
-        <v>484441000</v>
+        <v>3.0818</v>
       </c>
       <c r="T31">
-        <v>486482000</v>
+        <v>0.9891</v>
       </c>
       <c r="U31">
-        <v>484244000</v>
+        <v>0.8548</v>
       </c>
       <c r="V31">
-        <v>483284000</v>
+        <v>2.3388</v>
       </c>
       <c r="W31">
-        <v>482984000</v>
+        <v>2.5865</v>
       </c>
       <c r="X31">
-        <v>482924000</v>
+        <v>2.1667</v>
       </c>
       <c r="Y31">
-        <v>483957000</v>
+        <v>1.8848</v>
       </c>
       <c r="Z31">
-        <v>489810000</v>
+        <v>2.1509</v>
       </c>
       <c r="AA31">
-        <v>495011000</v>
+        <v>2.0825</v>
       </c>
       <c r="AB31">
-        <v>501265000</v>
+        <v>2.057</v>
       </c>
       <c r="AC31">
-        <v>505975000</v>
+        <v>1.6645</v>
       </c>
       <c r="AD31">
-        <v>513578000</v>
+        <v>2.0564</v>
       </c>
       <c r="AE31">
-        <v>521595000</v>
+        <v>2.0264</v>
       </c>
       <c r="AF31">
-        <v>528210000</v>
+        <v>1.85</v>
       </c>
       <c r="AG31">
-        <v>531515000</v>
+        <v>1.8105</v>
       </c>
       <c r="AH31">
-        <v>533922000</v>
+        <v>1.9927</v>
       </c>
       <c r="AI31">
-        <v>537547000</v>
+        <v>1.9305</v>
       </c>
       <c r="AJ31">
-        <v>537345000</v>
+        <v>1.8162</v>
       </c>
       <c r="AK31">
-        <v>536980000</v>
+        <v>1.6381</v>
       </c>
       <c r="AL31">
-        <v>538010000</v>
+        <v>1.7997</v>
       </c>
       <c r="AM31">
-        <v>538300000</v>
+        <v>1.7351</v>
       </c>
       <c r="AN31">
-        <v>538030000</v>
-      </c>
-      <c r="AO31">
-        <v>537628000</v>
+        <v>1.6337</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:40">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.3035</v>
+        <v>6.7915</v>
       </c>
       <c r="C32">
-        <v>0.3605</v>
+        <v>0.1436</v>
       </c>
       <c r="D32">
-        <v>0.2661</v>
+        <v>2.2768</v>
       </c>
       <c r="E32">
-        <v>0.3539</v>
+        <v>2.3332</v>
       </c>
       <c r="F32">
-        <v>0.3451</v>
+        <v>2.4793</v>
       </c>
       <c r="G32">
-        <v>0.34</v>
+        <v>2.6248</v>
       </c>
       <c r="H32">
-        <v>0.2303</v>
+        <v>2.8028</v>
       </c>
       <c r="I32">
-        <v>0.3293</v>
+        <v>2.4296</v>
       </c>
       <c r="J32">
-        <v>0.3553</v>
+        <v>2.4818</v>
       </c>
       <c r="K32">
-        <v>0.5392</v>
+        <v>2.2582</v>
       </c>
       <c r="L32">
-        <v>0.2906</v>
+        <v>2.2712</v>
       </c>
       <c r="M32">
-        <v>0.3593</v>
+        <v>1.5906</v>
       </c>
       <c r="N32">
-        <v>0.3741</v>
+        <v>2.7546</v>
       </c>
       <c r="O32">
-        <v>0.3473</v>
+        <v>1.9578</v>
       </c>
       <c r="P32">
-        <v>0.3333</v>
+        <v>1.5463</v>
       </c>
       <c r="Q32">
-        <v>0.3717</v>
+        <v>2.3081</v>
       </c>
       <c r="R32">
-        <v>0.3846</v>
+        <v>2.64</v>
       </c>
       <c r="S32">
-        <v>0.3681</v>
+        <v>3.1485</v>
       </c>
       <c r="T32">
-        <v>0.2224</v>
+        <v>1.0164</v>
       </c>
       <c r="U32">
-        <v>0.3679</v>
+        <v>0.8839</v>
       </c>
       <c r="V32">
-        <v>0.3993</v>
+        <v>2.3979</v>
       </c>
       <c r="W32">
-        <v>0.361</v>
+        <v>2.6501</v>
       </c>
       <c r="X32">
-        <v>0.3583</v>
+        <v>2.217</v>
       </c>
       <c r="Y32">
-        <v>0.3552</v>
+        <v>1.9277</v>
       </c>
       <c r="Z32">
-        <v>0.3663</v>
+        <v>2.2022</v>
       </c>
       <c r="AA32">
-        <v>0.3449</v>
+        <v>2.1305</v>
       </c>
       <c r="AB32">
-        <v>1.0206</v>
+        <v>2.1041</v>
       </c>
       <c r="AC32">
-        <v>0.3597</v>
+        <v>1.6949</v>
       </c>
       <c r="AD32">
-        <v>0.37</v>
+        <v>2.0915</v>
       </c>
       <c r="AE32">
-        <v>0.3433</v>
+        <v>2.064</v>
       </c>
       <c r="AF32">
-        <v>0.3302</v>
+        <v>1.8878</v>
       </c>
       <c r="AG32">
-        <v>0.3506</v>
+        <v>1.8474</v>
       </c>
       <c r="AH32">
-        <v>0.3592</v>
+        <v>2.0316</v>
       </c>
       <c r="AI32">
-        <v>0.3319</v>
+        <v>1.9678</v>
       </c>
       <c r="AJ32">
-        <v>0.2928</v>
+        <v>1.8519</v>
       </c>
       <c r="AK32">
-        <v>0.3414</v>
+        <v>1.6696</v>
       </c>
       <c r="AL32">
-        <v>0.3878</v>
+        <v>1.8314</v>
       </c>
       <c r="AM32">
-        <v>0.3338</v>
+        <v>1.7626</v>
       </c>
       <c r="AN32">
-        <v>0.2914</v>
-      </c>
-      <c r="AO32">
-        <v>0.3333</v>
+        <v>1.6597</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:40">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.1307</v>
+        <v>6.7772</v>
       </c>
       <c r="C33">
-        <v>0.1718</v>
+        <v>0.1432</v>
       </c>
       <c r="D33">
-        <v>0.254</v>
+        <v>2.2661</v>
       </c>
       <c r="E33">
-        <v>0.3356</v>
+        <v>2.313</v>
       </c>
       <c r="F33">
-        <v>0.1509</v>
+        <v>2.451</v>
       </c>
       <c r="G33">
-        <v>0.2042</v>
+        <v>2.5909</v>
       </c>
       <c r="H33">
-        <v>0.3017</v>
+        <v>2.775</v>
       </c>
       <c r="I33">
-        <v>0.3172</v>
+        <v>2.4077</v>
       </c>
       <c r="J33">
-        <v>0.1949</v>
+        <v>2.4622</v>
       </c>
       <c r="K33">
-        <v>0.1208</v>
+        <v>2.2435</v>
       </c>
       <c r="L33">
-        <v>0.3032</v>
+        <v>2.2528</v>
       </c>
       <c r="M33">
-        <v>0.3582</v>
+        <v>1.5696</v>
       </c>
       <c r="N33">
-        <v>0.1163</v>
+        <v>2.7238</v>
       </c>
       <c r="O33">
-        <v>0.094</v>
+        <v>1.9297</v>
       </c>
       <c r="P33">
-        <v>0.2997</v>
+        <v>1.5174</v>
       </c>
       <c r="Q33">
-        <v>0.3374</v>
+        <v>2.2543</v>
       </c>
       <c r="R33">
-        <v>0.1604</v>
+        <v>2.5836</v>
       </c>
       <c r="S33">
-        <v>0.1645</v>
+        <v>3.0818</v>
       </c>
       <c r="T33">
-        <v>0.0969</v>
+        <v>0.9891</v>
       </c>
       <c r="U33">
-        <v>0.4146</v>
+        <v>0.8548</v>
       </c>
       <c r="V33">
-        <v>0.1236</v>
+        <v>2.3388</v>
       </c>
       <c r="W33">
-        <v>0.1452</v>
+        <v>2.5865</v>
       </c>
       <c r="X33">
-        <v>0.3036</v>
+        <v>2.1667</v>
       </c>
       <c r="Y33">
-        <v>0.3416</v>
+        <v>1.8848</v>
       </c>
       <c r="Z33">
-        <v>0.0494</v>
+        <v>2.1509</v>
       </c>
       <c r="AA33">
-        <v>0.1936</v>
+        <v>2.0825</v>
       </c>
       <c r="AB33">
-        <v>0.1045</v>
+        <v>2.057</v>
       </c>
       <c r="AC33">
-        <v>0.3548</v>
+        <v>1.6645</v>
       </c>
       <c r="AD33">
-        <v>0.0164</v>
+        <v>2.0564</v>
       </c>
       <c r="AE33">
+        <v>2.0264</v>
+      </c>
+      <c r="AF33">
+        <v>1.85</v>
+      </c>
+      <c r="AG33">
+        <v>1.8105</v>
+      </c>
+      <c r="AH33">
+        <v>1.9927</v>
+      </c>
+      <c r="AI33">
+        <v>1.9305</v>
+      </c>
+      <c r="AJ33">
+        <v>1.8162</v>
+      </c>
+      <c r="AK33">
+        <v>1.6381</v>
+      </c>
+      <c r="AL33">
+        <v>1.7997</v>
+      </c>
+      <c r="AM33">
+        <v>1.7351</v>
+      </c>
+      <c r="AN33">
+        <v>1.6337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>570000000</v>
+      </c>
+      <c r="C34">
+        <v>572700000</v>
+      </c>
+      <c r="D34">
+        <v>575000000</v>
+      </c>
+      <c r="E34">
+        <v>579900000</v>
+      </c>
+      <c r="F34">
+        <v>586300000</v>
+      </c>
+      <c r="G34">
+        <v>588600000</v>
+      </c>
+      <c r="H34">
+        <v>586300000</v>
+      </c>
+      <c r="I34">
+        <v>584000000</v>
+      </c>
+      <c r="J34">
+        <v>582400000</v>
+      </c>
+      <c r="K34">
+        <v>580800000</v>
+      </c>
+      <c r="L34">
+        <v>581500000</v>
+      </c>
+      <c r="M34">
+        <v>582700000</v>
+      </c>
+      <c r="N34">
+        <v>583000000</v>
+      </c>
+      <c r="O34">
+        <v>586100000</v>
+      </c>
+      <c r="P34">
+        <v>588500000</v>
+      </c>
+      <c r="Q34">
+        <v>592600000</v>
+      </c>
+      <c r="R34">
+        <v>598400000</v>
+      </c>
+      <c r="S34">
+        <v>604200000</v>
+      </c>
+      <c r="T34">
+        <v>612700000</v>
+      </c>
+      <c r="U34">
+        <v>613400000</v>
+      </c>
+      <c r="V34">
+        <v>612700000</v>
+      </c>
+      <c r="W34">
+        <v>612800000</v>
+      </c>
+      <c r="X34">
+        <v>612000000</v>
+      </c>
+      <c r="Y34">
+        <v>613800000</v>
+      </c>
+      <c r="Z34">
+        <v>618800000</v>
+      </c>
+      <c r="AA34">
+        <v>620900000</v>
+      </c>
+      <c r="AB34">
+        <v>621300000</v>
+      </c>
+      <c r="AC34">
+        <v>625400000</v>
+      </c>
+      <c r="AD34">
+        <v>631200000</v>
+      </c>
+      <c r="AE34">
+        <v>643000000</v>
+      </c>
+      <c r="AF34">
+        <v>649200000</v>
+      </c>
+      <c r="AG34">
+        <v>650900000</v>
+      </c>
+      <c r="AH34">
+        <v>657900000</v>
+      </c>
+      <c r="AI34">
+        <v>664600000</v>
+      </c>
+      <c r="AJ34">
+        <v>674500000</v>
+      </c>
+      <c r="AK34">
+        <v>681300000</v>
+      </c>
+      <c r="AL34">
+        <v>691800000</v>
+      </c>
+      <c r="AM34">
+        <v>699100000</v>
+      </c>
+      <c r="AN34">
+        <v>702100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.5344</v>
+      </c>
+      <c r="C35">
+        <v>0.06569999999999999</v>
+      </c>
+      <c r="D35">
+        <v>0.2379</v>
+      </c>
+      <c r="E35">
+        <v>0.2465</v>
+      </c>
+      <c r="F35">
+        <v>0.2532</v>
+      </c>
+      <c r="G35">
+        <v>0.273</v>
+      </c>
+      <c r="H35">
+        <v>0.2773</v>
+      </c>
+      <c r="I35">
+        <v>0.2734</v>
+      </c>
+      <c r="J35">
+        <v>0.2862</v>
+      </c>
+      <c r="K35">
+        <v>0.311</v>
+      </c>
+      <c r="L35">
+        <v>0.2604</v>
+      </c>
+      <c r="M35">
+        <v>0.2204</v>
+      </c>
+      <c r="N35">
+        <v>0.2991</v>
+      </c>
+      <c r="O35">
+        <v>0.2543</v>
+      </c>
+      <c r="P35">
+        <v>0.1922</v>
+      </c>
+      <c r="Q35">
+        <v>0.2711</v>
+      </c>
+      <c r="R35">
+        <v>0.2908</v>
+      </c>
+      <c r="S35">
+        <v>0.3315</v>
+      </c>
+      <c r="T35">
+        <v>0.1678</v>
+      </c>
+      <c r="U35">
+        <v>0.2676</v>
+      </c>
+      <c r="V35">
+        <v>0.2919</v>
+      </c>
+      <c r="W35">
+        <v>0.3243</v>
+      </c>
+      <c r="X35">
+        <v>0.2837</v>
+      </c>
+      <c r="Y35">
+        <v>0.2528</v>
+      </c>
+      <c r="Z35">
+        <v>0.2947</v>
+      </c>
+      <c r="AA35">
+        <v>0.2913</v>
+      </c>
+      <c r="AB35">
+        <v>0.2894</v>
+      </c>
+      <c r="AC35">
+        <v>0.2599</v>
+      </c>
+      <c r="AD35">
+        <v>0.2893</v>
+      </c>
+      <c r="AE35">
+        <v>0.2842</v>
+      </c>
+      <c r="AF35">
+        <v>0.273</v>
+      </c>
+      <c r="AG35">
+        <v>0.2607</v>
+      </c>
+      <c r="AH35">
+        <v>0.2766</v>
+      </c>
+      <c r="AI35">
+        <v>0.2722</v>
+      </c>
+      <c r="AJ35">
+        <v>0.2638</v>
+      </c>
+      <c r="AK35">
+        <v>0.2558</v>
+      </c>
+      <c r="AL35">
+        <v>0.263</v>
+      </c>
+      <c r="AM35">
+        <v>0.2628</v>
+      </c>
+      <c r="AN35">
+        <v>0.2596</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.1776</v>
+      </c>
+      <c r="C36">
+        <v>0.1295</v>
+      </c>
+      <c r="D36">
+        <v>0.1145</v>
+      </c>
+      <c r="E36">
+        <v>0.2328</v>
+      </c>
+      <c r="F36">
+        <v>0.2096</v>
+      </c>
+      <c r="G36">
+        <v>0.2108</v>
+      </c>
+      <c r="H36">
+        <v>0.1907</v>
+      </c>
+      <c r="I36">
+        <v>0.293</v>
+      </c>
+      <c r="J36">
+        <v>0.297</v>
+      </c>
+      <c r="K36">
+        <v>0.2655</v>
+      </c>
+      <c r="L36">
+        <v>0.1502</v>
+      </c>
+      <c r="M36">
+        <v>0.2883</v>
+      </c>
+      <c r="N36">
+        <v>0.253</v>
+      </c>
+      <c r="O36">
+        <v>0.2034</v>
+      </c>
+      <c r="P36">
+        <v>0.1333</v>
+      </c>
+      <c r="Q36">
+        <v>0.2842</v>
+      </c>
+      <c r="R36">
+        <v>0.2624</v>
+      </c>
+      <c r="S36">
+        <v>0.2263</v>
+      </c>
+      <c r="T36">
+        <v>0.0173</v>
+      </c>
+      <c r="U36">
+        <v>0.2328</v>
+      </c>
+      <c r="V36">
+        <v>0.2141</v>
+      </c>
+      <c r="W36">
+        <v>0.2102</v>
+      </c>
+      <c r="X36">
+        <v>0.1286</v>
+      </c>
+      <c r="Y36">
+        <v>0.3014</v>
+      </c>
+      <c r="Z36">
+        <v>0.2475</v>
+      </c>
+      <c r="AA36">
+        <v>0.1677</v>
+      </c>
+      <c r="AB36">
+        <v>0.1701</v>
+      </c>
+      <c r="AC36">
+        <v>0.3204</v>
+      </c>
+      <c r="AD36">
+        <v>0.2158</v>
+      </c>
+      <c r="AE36">
+        <v>0.1741</v>
+      </c>
+      <c r="AF36">
+        <v>0.1425</v>
+      </c>
+      <c r="AG36">
+        <v>0.2828</v>
+      </c>
+      <c r="AH36">
         <v>0.2103</v>
       </c>
-      <c r="AF33">
-        <v>0.3153</v>
-      </c>
-      <c r="AG33">
-        <v>0.3752</v>
-      </c>
-      <c r="AH33">
-        <v>-0.0479</v>
-      </c>
-      <c r="AI33">
-        <v>0.1589</v>
-      </c>
-      <c r="AJ33">
-        <v>0.3754</v>
-      </c>
-      <c r="AK33">
-        <v>0.2417</v>
-      </c>
-      <c r="AL33">
-        <v>0.1297</v>
-      </c>
-      <c r="AM33">
-        <v>0.1356</v>
-      </c>
-      <c r="AN33">
-        <v>0.258</v>
-      </c>
-      <c r="AO33">
-        <v>0.2704</v>
+      <c r="AI36">
+        <v>0.2016</v>
+      </c>
+      <c r="AJ36">
+        <v>0.1394</v>
+      </c>
+      <c r="AK36">
+        <v>0.2633</v>
+      </c>
+      <c r="AL36">
+        <v>0.1454</v>
+      </c>
+      <c r="AM36">
+        <v>0.2166</v>
+      </c>
+      <c r="AN36">
+        <v>0.1302</v>
       </c>
     </row>
   </sheetData>
